--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_5_30.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_5_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1908814.266541029</v>
+        <v>1904581.660883516</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2295956.10121807</v>
+        <v>2341983.383206076</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>419463.0933791243</v>
+        <v>419463.0933791242</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8928223.840019114</v>
+        <v>8927469.172031755</v>
       </c>
     </row>
     <row r="11">
@@ -656,22 +656,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>389.2437464820987</v>
+        <v>137.6240673831587</v>
       </c>
       <c r="D2" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>12.725494085322</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G2" t="n">
-        <v>9.031127956876844</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -722,10 +722,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>231.8754251722117</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -747,16 +747,16 @@
         <v>135.0820259802211</v>
       </c>
       <c r="F3" t="n">
-        <v>71.24719361297615</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,16 +783,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>175.2139736830806</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>207.9625118881446</v>
+        <v>159.3753758166624</v>
       </c>
       <c r="V3" t="n">
         <v>220.3146016126436</v>
@@ -817,25 +817,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>65.28962772626136</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,16 +865,16 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>19.94568874373758</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="5">
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>357.2384296830645</v>
       </c>
       <c r="E5" t="n">
         <v>398.5576896346209</v>
@@ -908,13 +908,13 @@
         <v>12.725494085322</v>
       </c>
       <c r="G5" t="n">
-        <v>409.0311279568768</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -956,13 +956,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>42.58183551333451</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="6">
@@ -984,13 +984,13 @@
         <v>135.0820259802211</v>
       </c>
       <c r="F6" t="n">
-        <v>71.24719361297615</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1029,10 +1029,10 @@
         <v>175.2139736830806</v>
       </c>
       <c r="U6" t="n">
-        <v>207.9625118881446</v>
+        <v>96.11014219438691</v>
       </c>
       <c r="V6" t="n">
-        <v>220.3146016126436</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>227.816073408046</v>
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1066,13 +1066,13 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,16 +1099,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
         <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>83.63319389874106</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>11.3650463558364</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1130,19 +1130,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>364.5922541473097</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G8" t="n">
         <v>9.031127956876844</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>266.3313881926233</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="9">
@@ -1288,16 +1288,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>168.5030667546707</v>
+        <v>22.53780151506647</v>
       </c>
       <c r="D10" t="n">
         <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1345,13 +1345,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>232.4935410711781</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>302.4985237799664</v>
+        <v>302.4985237799665</v>
       </c>
       <c r="C11" t="n">
         <v>295.2524720077822</v>
       </c>
       <c r="D11" t="n">
-        <v>28.54327013945472</v>
+        <v>287.5954430211825</v>
       </c>
       <c r="E11" t="n">
-        <v>304.5664151603044</v>
+        <v>304.5664151603045</v>
       </c>
       <c r="F11" t="n">
-        <v>318.7342196110055</v>
+        <v>202.2211415064171</v>
       </c>
       <c r="G11" t="n">
         <v>315.0398534825604</v>
       </c>
       <c r="H11" t="n">
-        <v>226.8509454548578</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>42.96247126414336</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>70.85714503404348</v>
+        <v>70.8571450340435</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>127.274321941861</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1430,13 +1430,13 @@
         <v>244.6944667292003</v>
       </c>
       <c r="W11" t="n">
-        <v>273.2977702070789</v>
+        <v>273.297770207079</v>
       </c>
       <c r="X11" t="n">
         <v>291.5668045419573</v>
       </c>
       <c r="Y11" t="n">
-        <v>298.5345275142884</v>
+        <v>298.5345275142885</v>
       </c>
     </row>
     <row r="12">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>89.36466403007181</v>
+        <v>89.36466403007182</v>
       </c>
       <c r="C13" t="n">
-        <v>74.51179228035421</v>
+        <v>74.51179228035423</v>
       </c>
       <c r="D13" t="n">
-        <v>60.08550749219394</v>
+        <v>60.08550749219395</v>
       </c>
       <c r="E13" t="n">
-        <v>60.01194954507305</v>
+        <v>60.01194954507307</v>
       </c>
       <c r="F13" t="n">
-        <v>61.76140096484032</v>
+        <v>61.76140096484033</v>
       </c>
       <c r="G13" t="n">
-        <v>72.58023888723245</v>
+        <v>72.58023888723247</v>
       </c>
       <c r="H13" t="n">
-        <v>59.9324910538045</v>
+        <v>59.93249105380451</v>
       </c>
       <c r="I13" t="n">
-        <v>37.77220663497643</v>
+        <v>37.77220663497644</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>28.67070499943235</v>
+        <v>28.67070499943236</v>
       </c>
       <c r="S13" t="n">
         <v>106.7966485049597</v>
@@ -1585,13 +1585,13 @@
         <v>188.5931293662016</v>
       </c>
       <c r="V13" t="n">
-        <v>169.3282772530675</v>
+        <v>169.3282772530676</v>
       </c>
       <c r="W13" t="n">
         <v>186.5058235738177</v>
       </c>
       <c r="X13" t="n">
-        <v>137.7482445205302</v>
+        <v>137.7482445205303</v>
       </c>
       <c r="Y13" t="n">
         <v>126.8896660972066</v>
@@ -1607,13 +1607,13 @@
         <v>302.4985237799664</v>
       </c>
       <c r="C14" t="n">
-        <v>295.2524720077822</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>287.5954430211825</v>
+        <v>37.3174924099452</v>
       </c>
       <c r="E14" t="n">
-        <v>131.0047812123474</v>
+        <v>304.5664151603044</v>
       </c>
       <c r="F14" t="n">
         <v>318.7342196110055</v>
@@ -1658,13 +1658,13 @@
         <v>70.85714503404347</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>127.274321941861</v>
       </c>
       <c r="U14" t="n">
         <v>159.2039277954309</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>244.6944667292003</v>
       </c>
       <c r="W14" t="n">
         <v>273.2977702070789</v>
@@ -1898,13 +1898,13 @@
         <v>90.90562710059308</v>
       </c>
       <c r="U17" t="n">
-        <v>122.835232954163</v>
+        <v>122.8352329541643</v>
       </c>
       <c r="V17" t="n">
         <v>208.3257718879324</v>
       </c>
       <c r="W17" t="n">
-        <v>236.9290753658114</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X17" t="n">
         <v>255.1981097006893</v>
@@ -2138,7 +2138,7 @@
         <v>122.835232954163</v>
       </c>
       <c r="V20" t="n">
-        <v>208.3257718879337</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W20" t="n">
         <v>236.929075365811</v>
@@ -2552,16 +2552,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>302.4985237799665</v>
+        <v>302.4985237799664</v>
       </c>
       <c r="C26" t="n">
-        <v>295.2524720077822</v>
+        <v>130.7824021433738</v>
       </c>
       <c r="D26" t="n">
         <v>287.5954430211825</v>
       </c>
       <c r="E26" t="n">
-        <v>304.5664151603045</v>
+        <v>304.5664151603044</v>
       </c>
       <c r="F26" t="n">
         <v>318.7342196110055</v>
@@ -2573,7 +2573,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I26" t="n">
-        <v>34.6004593497907</v>
+        <v>42.96247126414333</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>70.85714503404346</v>
       </c>
       <c r="T26" t="n">
         <v>127.274321941861</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>159.2039277954309</v>
       </c>
       <c r="V26" t="n">
         <v>244.6944667292003</v>
       </c>
       <c r="W26" t="n">
-        <v>273.297770207079</v>
+        <v>273.2977702070789</v>
       </c>
       <c r="X26" t="n">
         <v>291.5668045419573</v>
       </c>
       <c r="Y26" t="n">
-        <v>298.5345275142885</v>
+        <v>298.5345275142884</v>
       </c>
     </row>
     <row r="27">
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>89.36466403007182</v>
+        <v>89.36466403007178</v>
       </c>
       <c r="C28" t="n">
-        <v>74.51179228035423</v>
+        <v>74.51179228035419</v>
       </c>
       <c r="D28" t="n">
-        <v>60.08550749219395</v>
+        <v>60.08550749219391</v>
       </c>
       <c r="E28" t="n">
-        <v>60.01194954507307</v>
+        <v>60.01194954507302</v>
       </c>
       <c r="F28" t="n">
-        <v>61.76140096484033</v>
+        <v>61.76140096484029</v>
       </c>
       <c r="G28" t="n">
-        <v>72.58023888723247</v>
+        <v>72.58023888723243</v>
       </c>
       <c r="H28" t="n">
-        <v>59.93249105380451</v>
+        <v>59.93249105380447</v>
       </c>
       <c r="I28" t="n">
-        <v>37.77220663497644</v>
+        <v>37.7722066349764</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,25 +2758,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>28.67070499943236</v>
+        <v>28.67070499943232</v>
       </c>
       <c r="S28" t="n">
-        <v>106.7966485049597</v>
+        <v>106.7966485049596</v>
       </c>
       <c r="T28" t="n">
-        <v>139.3705868391318</v>
+        <v>139.3705868391317</v>
       </c>
       <c r="U28" t="n">
         <v>188.5931293662016</v>
       </c>
       <c r="V28" t="n">
-        <v>169.3282772530676</v>
+        <v>169.3282772530675</v>
       </c>
       <c r="W28" t="n">
         <v>186.5058235738177</v>
       </c>
       <c r="X28" t="n">
-        <v>137.7482445205303</v>
+        <v>137.7482445205302</v>
       </c>
       <c r="Y28" t="n">
         <v>126.8896660972066</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>302.4985237799665</v>
+        <v>302.4985237799664</v>
       </c>
       <c r="C29" t="n">
         <v>295.2524720077822</v>
@@ -2798,7 +2798,7 @@
         <v>287.5954430211825</v>
       </c>
       <c r="E29" t="n">
-        <v>304.5664151603045</v>
+        <v>304.5664151603044</v>
       </c>
       <c r="F29" t="n">
         <v>318.7342196110055</v>
@@ -2810,7 +2810,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I29" t="n">
-        <v>42.96247126414337</v>
+        <v>42.96247126414336</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.8571450340435</v>
+        <v>70.85714503404348</v>
       </c>
       <c r="T29" t="n">
         <v>127.274321941861</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>159.2039277954309</v>
       </c>
       <c r="V29" t="n">
         <v>244.6944667292003</v>
       </c>
       <c r="W29" t="n">
-        <v>194.0786132586821</v>
+        <v>273.2977702070789</v>
       </c>
       <c r="X29" t="n">
-        <v>291.5668045419573</v>
+        <v>127.0967346775475</v>
       </c>
       <c r="Y29" t="n">
-        <v>298.5345275142885</v>
+        <v>298.5345275142884</v>
       </c>
     </row>
     <row r="30">
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>89.36466403007182</v>
+        <v>89.36466403007181</v>
       </c>
       <c r="C31" t="n">
-        <v>74.51179228035423</v>
+        <v>74.51179228035421</v>
       </c>
       <c r="D31" t="n">
-        <v>60.08550749219395</v>
+        <v>60.08550749219394</v>
       </c>
       <c r="E31" t="n">
-        <v>60.01194954507307</v>
+        <v>60.01194954507305</v>
       </c>
       <c r="F31" t="n">
-        <v>61.76140096484033</v>
+        <v>61.76140096484032</v>
       </c>
       <c r="G31" t="n">
-        <v>72.58023888723247</v>
+        <v>72.58023888723245</v>
       </c>
       <c r="H31" t="n">
-        <v>59.93249105380451</v>
+        <v>59.9324910538045</v>
       </c>
       <c r="I31" t="n">
-        <v>37.77220663497644</v>
+        <v>37.77220663497643</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>28.67070499943236</v>
+        <v>28.67070499943235</v>
       </c>
       <c r="S31" t="n">
         <v>106.7966485049597</v>
@@ -3007,13 +3007,13 @@
         <v>188.5931293662016</v>
       </c>
       <c r="V31" t="n">
-        <v>169.3282772530676</v>
+        <v>169.3282772530675</v>
       </c>
       <c r="W31" t="n">
         <v>186.5058235738177</v>
       </c>
       <c r="X31" t="n">
-        <v>137.7482445205303</v>
+        <v>137.7482445205302</v>
       </c>
       <c r="Y31" t="n">
         <v>126.8896660972066</v>
@@ -3041,13 +3041,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G32" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H32" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I32" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875465</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3074,13 +3074,13 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>-1.350599632132798e-12</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277559</v>
       </c>
       <c r="T32" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059314</v>
       </c>
       <c r="U32" t="n">
         <v>122.835232954163</v>
@@ -3089,10 +3089,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W32" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X32" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y32" t="n">
         <v>262.1658326730205</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880391</v>
       </c>
       <c r="C34" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908632</v>
       </c>
       <c r="D34" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092604</v>
       </c>
       <c r="E34" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380516</v>
       </c>
       <c r="F34" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357242</v>
       </c>
       <c r="G34" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596456</v>
       </c>
       <c r="H34" t="n">
-        <v>23.56379621253657</v>
+        <v>23.5637962125366</v>
       </c>
       <c r="I34" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708532</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,25 +3235,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369177</v>
       </c>
       <c r="T34" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U34" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V34" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W34" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X34" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y34" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593872</v>
       </c>
     </row>
     <row r="35">
@@ -3500,13 +3500,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C38" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D38" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E38" t="n">
         <v>268.1977203190365</v>
@@ -3518,10 +3518,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H38" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I38" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T38" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U38" t="n">
         <v>122.835232954163</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C40" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D40" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E40" t="n">
-        <v>23.64325470380513</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F40" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G40" t="n">
-        <v>36.21154404596453</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H40" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I40" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T40" t="n">
         <v>103.0018919978638</v>
@@ -3721,13 +3721,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W40" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X40" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y40" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="41">
@@ -3737,28 +3737,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>284.128086467796</v>
+        <v>289.058287459757</v>
       </c>
       <c r="C41" t="n">
-        <v>276.8820346956118</v>
+        <v>208.7129757201765</v>
       </c>
       <c r="D41" t="n">
-        <v>269.225005709012</v>
+        <v>274.1552067009731</v>
       </c>
       <c r="E41" t="n">
-        <v>286.195977848134</v>
+        <v>291.126178840095</v>
       </c>
       <c r="F41" t="n">
-        <v>300.3637822988351</v>
+        <v>305.2939832907962</v>
       </c>
       <c r="G41" t="n">
-        <v>296.6694161703899</v>
+        <v>301.599617162351</v>
       </c>
       <c r="H41" t="n">
-        <v>208.4805081426873</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>29.52223494393397</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3791,22 +3791,22 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>113.8340856216516</v>
       </c>
       <c r="U41" t="n">
-        <v>140.8334904832604</v>
+        <v>145.7636914752215</v>
       </c>
       <c r="V41" t="n">
-        <v>142.3327927841041</v>
+        <v>231.2542304089909</v>
       </c>
       <c r="W41" t="n">
-        <v>254.9273328949085</v>
+        <v>259.8575338868695</v>
       </c>
       <c r="X41" t="n">
-        <v>273.1963672297868</v>
+        <v>278.1265682217479</v>
       </c>
       <c r="Y41" t="n">
-        <v>280.164090202118</v>
+        <v>285.094291194079</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>70.99422671790134</v>
+        <v>75.92442770986241</v>
       </c>
       <c r="C43" t="n">
-        <v>56.14135496818375</v>
+        <v>61.07155596014482</v>
       </c>
       <c r="D43" t="n">
-        <v>41.71507018002347</v>
+        <v>46.64527117198455</v>
       </c>
       <c r="E43" t="n">
-        <v>41.64151223290258</v>
+        <v>46.57171322486366</v>
       </c>
       <c r="F43" t="n">
-        <v>43.39096365266985</v>
+        <v>48.32116464463093</v>
       </c>
       <c r="G43" t="n">
-        <v>54.20980157506199</v>
+        <v>59.14000256702306</v>
       </c>
       <c r="H43" t="n">
-        <v>41.56205374163403</v>
+        <v>46.4922547335951</v>
       </c>
       <c r="I43" t="n">
-        <v>19.40176932280596</v>
+        <v>24.33197031476703</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>10.30026768726188</v>
+        <v>15.23046867922295</v>
       </c>
       <c r="S43" t="n">
-        <v>88.4262111927892</v>
+        <v>93.35641218475027</v>
       </c>
       <c r="T43" t="n">
-        <v>121.0001495269613</v>
+        <v>125.9303505189224</v>
       </c>
       <c r="U43" t="n">
-        <v>170.2226920540311</v>
+        <v>175.1528930459922</v>
       </c>
       <c r="V43" t="n">
-        <v>150.9578399408971</v>
+        <v>155.8880409328582</v>
       </c>
       <c r="W43" t="n">
-        <v>168.1353862616472</v>
+        <v>173.0655872536083</v>
       </c>
       <c r="X43" t="n">
-        <v>119.3778072083598</v>
+        <v>124.3080082003209</v>
       </c>
       <c r="Y43" t="n">
-        <v>108.5192287850361</v>
+        <v>113.4494297769972</v>
       </c>
     </row>
     <row r="44">
@@ -3974,28 +3974,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>284.128086467796</v>
+        <v>289.058287459757</v>
       </c>
       <c r="C44" t="n">
-        <v>276.8820346956118</v>
+        <v>281.8122356875729</v>
       </c>
       <c r="D44" t="n">
-        <v>269.225005709012</v>
+        <v>274.1552067009731</v>
       </c>
       <c r="E44" t="n">
-        <v>286.195977848134</v>
+        <v>291.126178840095</v>
       </c>
       <c r="F44" t="n">
-        <v>300.3637822988351</v>
+        <v>305.2939832907962</v>
       </c>
       <c r="G44" t="n">
-        <v>296.6694161703899</v>
+        <v>301.599617162351</v>
       </c>
       <c r="H44" t="n">
-        <v>208.4805081426873</v>
+        <v>213.4107091346484</v>
       </c>
       <c r="I44" t="n">
-        <v>9.545503910419797</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>52.48670772187303</v>
+        <v>2.610042938762768</v>
       </c>
       <c r="T44" t="n">
-        <v>108.9038846296906</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>140.8334904832604</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>226.3240294170299</v>
+        <v>231.2542304089909</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>259.8575338868695</v>
       </c>
       <c r="X44" t="n">
-        <v>273.1963672297868</v>
+        <v>278.1265682217479</v>
       </c>
       <c r="Y44" t="n">
-        <v>280.164090202118</v>
+        <v>285.094291194079</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>70.99422671790136</v>
+        <v>75.92442770986241</v>
       </c>
       <c r="C46" t="n">
-        <v>56.14135496818376</v>
+        <v>61.07155596014482</v>
       </c>
       <c r="D46" t="n">
-        <v>41.71507018002349</v>
+        <v>46.64527117198455</v>
       </c>
       <c r="E46" t="n">
-        <v>41.6415122329026</v>
+        <v>46.57171322486366</v>
       </c>
       <c r="F46" t="n">
-        <v>43.39096365266987</v>
+        <v>48.32116464463093</v>
       </c>
       <c r="G46" t="n">
-        <v>54.209801575062</v>
+        <v>59.14000256702306</v>
       </c>
       <c r="H46" t="n">
-        <v>41.56205374163405</v>
+        <v>46.4922547335951</v>
       </c>
       <c r="I46" t="n">
-        <v>19.40176932280598</v>
+        <v>24.33197031476703</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>10.30026768726189</v>
+        <v>15.23046867922295</v>
       </c>
       <c r="S46" t="n">
-        <v>88.42621119278921</v>
+        <v>93.35641218475027</v>
       </c>
       <c r="T46" t="n">
-        <v>121.0001495269613</v>
+        <v>125.9303505189224</v>
       </c>
       <c r="U46" t="n">
-        <v>170.2226920540311</v>
+        <v>175.1528930459922</v>
       </c>
       <c r="V46" t="n">
-        <v>150.9578399408971</v>
+        <v>155.8880409328582</v>
       </c>
       <c r="W46" t="n">
-        <v>168.1353862616472</v>
+        <v>173.0655872536083</v>
       </c>
       <c r="X46" t="n">
-        <v>119.3778072083598</v>
+        <v>124.3080082003209</v>
       </c>
       <c r="Y46" t="n">
-        <v>108.5192287850362</v>
+        <v>113.4494297769972</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>979.9122984519738</v>
+        <v>1934.890849294459</v>
       </c>
       <c r="C2" t="n">
-        <v>586.7367969549043</v>
+        <v>1795.876639816521</v>
       </c>
       <c r="D2" t="n">
-        <v>201.2956681715721</v>
+        <v>1410.435511033189</v>
       </c>
       <c r="E2" t="n">
-        <v>201.2956681715721</v>
+        <v>1007.851986149733</v>
       </c>
       <c r="F2" t="n">
-        <v>188.441633741954</v>
+        <v>590.9575476797108</v>
       </c>
       <c r="G2" t="n">
-        <v>179.3192822703612</v>
+        <v>177.7947921677139</v>
       </c>
       <c r="H2" t="n">
-        <v>179.3192822703612</v>
+        <v>177.7947921677139</v>
       </c>
       <c r="I2" t="n">
-        <v>40.982165362826</v>
+        <v>39.45767526017874</v>
       </c>
       <c r="J2" t="n">
-        <v>185.6319382716541</v>
+        <v>39.45767526017874</v>
       </c>
       <c r="K2" t="n">
-        <v>544.614294299116</v>
+        <v>39.45767526017874</v>
       </c>
       <c r="L2" t="n">
-        <v>1037.934586017645</v>
+        <v>527.7464066048906</v>
       </c>
       <c r="M2" t="n">
-        <v>1545.088882382616</v>
+        <v>1016.035137949602</v>
       </c>
       <c r="N2" t="n">
-        <v>1609.068667248971</v>
+        <v>1347.99860197566</v>
       </c>
       <c r="O2" t="n">
-        <v>2049.1082681413</v>
+        <v>1788.038202867989</v>
       </c>
       <c r="P2" t="n">
-        <v>2049.1082681413</v>
+        <v>1788.038202867989</v>
       </c>
       <c r="Q2" t="n">
-        <v>2049.1082681413</v>
+        <v>1972.883763008937</v>
       </c>
       <c r="R2" t="n">
-        <v>2011.115354426822</v>
+        <v>1934.890849294459</v>
       </c>
       <c r="S2" t="n">
-        <v>2011.115354426822</v>
+        <v>1934.890849294459</v>
       </c>
       <c r="T2" t="n">
-        <v>2011.115354426822</v>
+        <v>1934.890849294459</v>
       </c>
       <c r="U2" t="n">
-        <v>2011.115354426822</v>
+        <v>1934.890849294459</v>
       </c>
       <c r="V2" t="n">
-        <v>2011.115354426822</v>
+        <v>1934.890849294459</v>
       </c>
       <c r="W2" t="n">
-        <v>2011.115354426822</v>
+        <v>1934.890849294459</v>
       </c>
       <c r="X2" t="n">
-        <v>1776.89775324277</v>
+        <v>1934.890849294459</v>
       </c>
       <c r="Y2" t="n">
-        <v>1380.407044163371</v>
+        <v>1934.890849294459</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>530.1387163056952</v>
+        <v>838.8236584002098</v>
       </c>
       <c r="C3" t="n">
-        <v>379.4844858657874</v>
+        <v>688.169427960302</v>
       </c>
       <c r="D3" t="n">
-        <v>249.3955184872677</v>
+        <v>558.0804605817823</v>
       </c>
       <c r="E3" t="n">
-        <v>112.9490275981555</v>
+        <v>421.63396969267</v>
       </c>
       <c r="F3" t="n">
-        <v>40.982165362826</v>
+        <v>297.2021635758018</v>
       </c>
       <c r="G3" t="n">
-        <v>40.982165362826</v>
+        <v>177.1423456476662</v>
       </c>
       <c r="H3" t="n">
-        <v>40.982165362826</v>
+        <v>88.84492924826715</v>
       </c>
       <c r="I3" t="n">
-        <v>40.982165362826</v>
+        <v>39.45767526017874</v>
       </c>
       <c r="J3" t="n">
-        <v>154.0971475825534</v>
+        <v>39.45767526017874</v>
       </c>
       <c r="K3" t="n">
-        <v>473.8362936447799</v>
+        <v>39.45767526017874</v>
       </c>
       <c r="L3" t="n">
-        <v>957.402379543093</v>
+        <v>102.3962002584037</v>
       </c>
       <c r="M3" t="n">
-        <v>1307.588880221438</v>
+        <v>590.6849316031156</v>
       </c>
       <c r="N3" t="n">
-        <v>1307.588880221438</v>
+        <v>1078.973662947828</v>
       </c>
       <c r="O3" t="n">
-        <v>1814.743176586409</v>
+        <v>1567.26239429254</v>
       </c>
       <c r="P3" t="n">
-        <v>1814.743176586409</v>
+        <v>1972.883763008937</v>
       </c>
       <c r="Q3" t="n">
-        <v>2049.1082681413</v>
+        <v>1972.883763008937</v>
       </c>
       <c r="R3" t="n">
-        <v>2025.191225039365</v>
+        <v>1972.883763008937</v>
       </c>
       <c r="S3" t="n">
-        <v>1890.260547939233</v>
+        <v>1972.883763008937</v>
       </c>
       <c r="T3" t="n">
-        <v>1713.276736138142</v>
+        <v>1972.883763008937</v>
       </c>
       <c r="U3" t="n">
-        <v>1503.213592816784</v>
+        <v>1811.898534911298</v>
       </c>
       <c r="V3" t="n">
-        <v>1280.673591187851</v>
+        <v>1589.358533282365</v>
       </c>
       <c r="W3" t="n">
-        <v>1050.556345321138</v>
+        <v>1359.241287415652</v>
       </c>
       <c r="X3" t="n">
-        <v>861.2492676711493</v>
+        <v>1169.934209765664</v>
       </c>
       <c r="Y3" t="n">
-        <v>681.9350507466565</v>
+        <v>990.6199928411711</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>198.3081001498531</v>
+        <v>1749.77170182558</v>
       </c>
       <c r="C4" t="n">
-        <v>198.3081001498531</v>
+        <v>1683.822582910165</v>
       </c>
       <c r="D4" t="n">
-        <v>198.3081001498531</v>
+        <v>1683.822582910165</v>
       </c>
       <c r="E4" t="n">
-        <v>198.3081001498531</v>
+        <v>1528.263770769367</v>
       </c>
       <c r="F4" t="n">
-        <v>40.982165362826</v>
+        <v>1528.263770769367</v>
       </c>
       <c r="G4" t="n">
-        <v>40.982165362826</v>
+        <v>1360.009716868813</v>
       </c>
       <c r="H4" t="n">
-        <v>40.982165362826</v>
+        <v>1204.531165830307</v>
       </c>
       <c r="I4" t="n">
-        <v>40.982165362826</v>
+        <v>1071.436740467385</v>
       </c>
       <c r="J4" t="n">
-        <v>40.982165362826</v>
+        <v>1071.436740467385</v>
       </c>
       <c r="K4" t="n">
-        <v>122.8172064727679</v>
+        <v>1153.271781577326</v>
       </c>
       <c r="L4" t="n">
-        <v>286.9448463465677</v>
+        <v>1317.399421451126</v>
       </c>
       <c r="M4" t="n">
-        <v>473.2364246848317</v>
+        <v>1503.69099978939</v>
       </c>
       <c r="N4" t="n">
-        <v>656.4260587160409</v>
+        <v>1686.8806338206</v>
       </c>
       <c r="O4" t="n">
-        <v>819.1308257577489</v>
+        <v>1849.585400862308</v>
       </c>
       <c r="P4" t="n">
-        <v>939.0069915343274</v>
+        <v>1969.461566638886</v>
       </c>
       <c r="Q4" t="n">
-        <v>942.4291879043784</v>
+        <v>1972.883763008937</v>
       </c>
       <c r="R4" t="n">
-        <v>942.4291879043784</v>
+        <v>1972.883763008937</v>
       </c>
       <c r="S4" t="n">
-        <v>739.6131040869277</v>
+        <v>1972.883763008937</v>
       </c>
       <c r="T4" t="n">
-        <v>503.8940522551618</v>
+        <v>1972.883763008937</v>
       </c>
       <c r="U4" t="n">
-        <v>218.4552604970627</v>
+        <v>1972.883763008937</v>
       </c>
       <c r="V4" t="n">
-        <v>198.3081001498531</v>
+        <v>1972.883763008937</v>
       </c>
       <c r="W4" t="n">
-        <v>198.3081001498531</v>
+        <v>1972.883763008937</v>
       </c>
       <c r="X4" t="n">
-        <v>198.3081001498531</v>
+        <v>1972.883763008937</v>
       </c>
       <c r="Y4" t="n">
-        <v>198.3081001498531</v>
+        <v>1749.77170182558</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1401.095098592501</v>
+        <v>1148.947535148117</v>
       </c>
       <c r="C5" t="n">
-        <v>1007.919597095432</v>
+        <v>1148.947535148117</v>
       </c>
       <c r="D5" t="n">
-        <v>1007.919597095432</v>
+        <v>788.1006364783545</v>
       </c>
       <c r="E5" t="n">
-        <v>605.3360722119762</v>
+        <v>385.5171115948991</v>
       </c>
       <c r="F5" t="n">
-        <v>592.482037782358</v>
+        <v>372.6630771652809</v>
       </c>
       <c r="G5" t="n">
-        <v>179.3192822703612</v>
+        <v>363.5407256936881</v>
       </c>
       <c r="H5" t="n">
-        <v>179.3192822703612</v>
+        <v>39.45767526017874</v>
       </c>
       <c r="I5" t="n">
-        <v>40.982165362826</v>
+        <v>39.45767526017874</v>
       </c>
       <c r="J5" t="n">
-        <v>40.982165362826</v>
+        <v>184.1074481690069</v>
       </c>
       <c r="K5" t="n">
-        <v>40.982165362826</v>
+        <v>543.0898041964687</v>
       </c>
       <c r="L5" t="n">
-        <v>534.3024570813549</v>
+        <v>1031.378535541181</v>
       </c>
       <c r="M5" t="n">
-        <v>1041.456753446327</v>
+        <v>1519.667266885892</v>
       </c>
       <c r="N5" t="n">
-        <v>1548.611049811298</v>
+        <v>1788.038202867989</v>
       </c>
       <c r="O5" t="n">
-        <v>1700.920776009778</v>
+        <v>1788.038202867989</v>
       </c>
       <c r="P5" t="n">
-        <v>2049.1082681413</v>
+        <v>1788.038202867989</v>
       </c>
       <c r="Q5" t="n">
-        <v>2049.1082681413</v>
+        <v>1972.883763008937</v>
       </c>
       <c r="R5" t="n">
-        <v>2011.115354426822</v>
+        <v>1934.890849294459</v>
       </c>
       <c r="S5" t="n">
-        <v>1844.601799367872</v>
+        <v>1934.890849294459</v>
       </c>
       <c r="T5" t="n">
-        <v>1844.601799367872</v>
+        <v>1934.890849294459</v>
       </c>
       <c r="U5" t="n">
-        <v>1844.601799367872</v>
+        <v>1934.890849294459</v>
       </c>
       <c r="V5" t="n">
-        <v>1844.601799367872</v>
+        <v>1934.890849294459</v>
       </c>
       <c r="W5" t="n">
-        <v>1801.589844303898</v>
+        <v>1934.890849294459</v>
       </c>
       <c r="X5" t="n">
-        <v>1801.589844303898</v>
+        <v>1545.438244227515</v>
       </c>
       <c r="Y5" t="n">
-        <v>1801.589844303898</v>
+        <v>1148.947535148117</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>530.1387163056952</v>
+        <v>789.4364044121213</v>
       </c>
       <c r="C6" t="n">
-        <v>379.4844858657874</v>
+        <v>638.7821739722135</v>
       </c>
       <c r="D6" t="n">
-        <v>249.3955184872677</v>
+        <v>508.6932065936938</v>
       </c>
       <c r="E6" t="n">
-        <v>112.9490275981555</v>
+        <v>372.2467157045816</v>
       </c>
       <c r="F6" t="n">
-        <v>40.982165362826</v>
+        <v>247.8149095877134</v>
       </c>
       <c r="G6" t="n">
-        <v>40.982165362826</v>
+        <v>127.7550916595778</v>
       </c>
       <c r="H6" t="n">
-        <v>40.982165362826</v>
+        <v>39.45767526017874</v>
       </c>
       <c r="I6" t="n">
-        <v>40.982165362826</v>
+        <v>39.45767526017874</v>
       </c>
       <c r="J6" t="n">
-        <v>154.0971475825534</v>
+        <v>39.45767526017874</v>
       </c>
       <c r="K6" t="n">
-        <v>473.8362936447799</v>
+        <v>359.1968213224052</v>
       </c>
       <c r="L6" t="n">
-        <v>473.8362936447799</v>
+        <v>359.1968213224052</v>
       </c>
       <c r="M6" t="n">
-        <v>473.8362936447799</v>
+        <v>847.4855526671171</v>
       </c>
       <c r="N6" t="n">
-        <v>901.9675115050402</v>
+        <v>1078.973662947828</v>
       </c>
       <c r="O6" t="n">
-        <v>1409.121807870012</v>
+        <v>1567.26239429254</v>
       </c>
       <c r="P6" t="n">
-        <v>1814.743176586409</v>
+        <v>1972.883763008937</v>
       </c>
       <c r="Q6" t="n">
-        <v>2049.1082681413</v>
+        <v>1972.883763008937</v>
       </c>
       <c r="R6" t="n">
-        <v>2025.191225039365</v>
+        <v>1948.966719907002</v>
       </c>
       <c r="S6" t="n">
-        <v>1890.260547939233</v>
+        <v>1814.03604280687</v>
       </c>
       <c r="T6" t="n">
-        <v>1713.276736138142</v>
+        <v>1637.052231005779</v>
       </c>
       <c r="U6" t="n">
-        <v>1503.213592816784</v>
+        <v>1539.971279294277</v>
       </c>
       <c r="V6" t="n">
-        <v>1280.673591187851</v>
+        <v>1539.971279294277</v>
       </c>
       <c r="W6" t="n">
-        <v>1050.556345321138</v>
+        <v>1309.854033427564</v>
       </c>
       <c r="X6" t="n">
-        <v>861.2492676711493</v>
+        <v>1120.546955777575</v>
       </c>
       <c r="Y6" t="n">
-        <v>681.9350507466565</v>
+        <v>941.2327388530827</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>655.1351304518357</v>
+        <v>366.9887279812166</v>
       </c>
       <c r="C7" t="n">
-        <v>655.1351304518357</v>
+        <v>196.7836100472058</v>
       </c>
       <c r="D7" t="n">
-        <v>655.1351304518357</v>
+        <v>196.7836100472058</v>
       </c>
       <c r="E7" t="n">
-        <v>655.1351304518357</v>
+        <v>196.7836100472058</v>
       </c>
       <c r="F7" t="n">
-        <v>497.8091956648086</v>
+        <v>39.45767526017874</v>
       </c>
       <c r="G7" t="n">
-        <v>329.5551417642541</v>
+        <v>39.45767526017874</v>
       </c>
       <c r="H7" t="n">
-        <v>174.0765907257481</v>
+        <v>39.45767526017874</v>
       </c>
       <c r="I7" t="n">
-        <v>40.982165362826</v>
+        <v>39.45767526017874</v>
       </c>
       <c r="J7" t="n">
-        <v>40.982165362826</v>
+        <v>39.45767526017874</v>
       </c>
       <c r="K7" t="n">
-        <v>122.8172064727679</v>
+        <v>121.2927163701206</v>
       </c>
       <c r="L7" t="n">
-        <v>286.9448463465677</v>
+        <v>285.4203562439204</v>
       </c>
       <c r="M7" t="n">
-        <v>473.2364246848317</v>
+        <v>471.7119345821844</v>
       </c>
       <c r="N7" t="n">
-        <v>656.4260587160409</v>
+        <v>654.9015686133937</v>
       </c>
       <c r="O7" t="n">
-        <v>819.1308257577489</v>
+        <v>817.6063356551017</v>
       </c>
       <c r="P7" t="n">
-        <v>939.0069915343274</v>
+        <v>937.4825014316802</v>
       </c>
       <c r="Q7" t="n">
-        <v>942.4291879043784</v>
+        <v>940.9046978017312</v>
       </c>
       <c r="R7" t="n">
-        <v>942.4291879043784</v>
+        <v>817.0037084343082</v>
       </c>
       <c r="S7" t="n">
-        <v>739.6131040869277</v>
+        <v>614.1876246168576</v>
       </c>
       <c r="T7" t="n">
-        <v>655.1351304518357</v>
+        <v>378.4685727850917</v>
       </c>
       <c r="U7" t="n">
-        <v>655.1351304518357</v>
+        <v>366.9887279812166</v>
       </c>
       <c r="V7" t="n">
-        <v>655.1351304518357</v>
+        <v>366.9887279812166</v>
       </c>
       <c r="W7" t="n">
-        <v>655.1351304518357</v>
+        <v>366.9887279812166</v>
       </c>
       <c r="X7" t="n">
-        <v>655.1351304518357</v>
+        <v>366.9887279812166</v>
       </c>
       <c r="Y7" t="n">
-        <v>655.1351304518357</v>
+        <v>366.9887279812166</v>
       </c>
     </row>
     <row r="8">
@@ -4778,46 +4778,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1792.867032114551</v>
+        <v>69.28935600275456</v>
       </c>
       <c r="C8" t="n">
-        <v>1399.691530617481</v>
+        <v>69.28935600275456</v>
       </c>
       <c r="D8" t="n">
-        <v>1014.250401834149</v>
+        <v>69.28935600275456</v>
       </c>
       <c r="E8" t="n">
-        <v>611.6668769506938</v>
+        <v>69.28935600275456</v>
       </c>
       <c r="F8" t="n">
-        <v>194.7724384806716</v>
+        <v>56.43532157313638</v>
       </c>
       <c r="G8" t="n">
-        <v>185.6500870090788</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H8" t="n">
-        <v>185.6500870090788</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I8" t="n">
         <v>47.31297010154361</v>
       </c>
       <c r="J8" t="n">
-        <v>47.31297010154361</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K8" t="n">
-        <v>406.2953261290054</v>
+        <v>503.6092283712875</v>
       </c>
       <c r="L8" t="n">
-        <v>899.6156178475343</v>
+        <v>503.6092283712875</v>
       </c>
       <c r="M8" t="n">
-        <v>1445.616517892115</v>
+        <v>1049.610128415868</v>
       </c>
       <c r="N8" t="n">
-        <v>1925.608904184852</v>
+        <v>1577.42141205333</v>
       </c>
       <c r="O8" t="n">
-        <v>2365.64850507718</v>
+        <v>2017.461012945658</v>
       </c>
       <c r="P8" t="n">
         <v>2365.64850507718</v>
@@ -4829,25 +4829,25 @@
         <v>2327.655591362702</v>
       </c>
       <c r="S8" t="n">
-        <v>2161.142036303753</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="T8" t="n">
-        <v>2161.142036303753</v>
+        <v>2104.154988922119</v>
       </c>
       <c r="U8" t="n">
-        <v>2161.142036303753</v>
+        <v>1848.402259356717</v>
       </c>
       <c r="V8" t="n">
-        <v>2161.142036303753</v>
+        <v>1506.295450060236</v>
       </c>
       <c r="W8" t="n">
-        <v>2161.142036303753</v>
+        <v>1135.296415028523</v>
       </c>
       <c r="X8" t="n">
-        <v>2161.142036303753</v>
+        <v>866.2748107935504</v>
       </c>
       <c r="Y8" t="n">
-        <v>2161.142036303753</v>
+        <v>469.7841017141515</v>
       </c>
     </row>
     <row r="9">
@@ -4881,22 +4881,22 @@
         <v>47.31297010154367</v>
       </c>
       <c r="J9" t="n">
-        <v>47.31297010154367</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="K9" t="n">
-        <v>47.31297010154367</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="L9" t="n">
-        <v>530.879055999857</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M9" t="n">
-        <v>623.6437572083089</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="N9" t="n">
-        <v>1209.141762214911</v>
+        <v>1549.231189288413</v>
       </c>
       <c r="O9" t="n">
-        <v>1725.662044805892</v>
+        <v>2065.751471879394</v>
       </c>
       <c r="P9" t="n">
         <v>2131.28341352229</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>528.7100132738371</v>
+        <v>256.0898094487516</v>
       </c>
       <c r="C10" t="n">
-        <v>358.5048953398264</v>
+        <v>233.3243533729269</v>
       </c>
       <c r="D10" t="n">
-        <v>202.8717822423411</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="E10" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="F10" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="G10" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="H10" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="I10" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="J10" t="n">
         <v>47.31297010154361</v>
@@ -4984,28 +4984,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R10" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="S10" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="T10" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="U10" t="n">
-        <v>948.7599926430961</v>
+        <v>539.420211517574</v>
       </c>
       <c r="V10" t="n">
-        <v>948.7599926430961</v>
+        <v>539.420211517574</v>
       </c>
       <c r="W10" t="n">
-        <v>713.9180319651384</v>
+        <v>256.0898094487516</v>
       </c>
       <c r="X10" t="n">
-        <v>713.9180319651384</v>
+        <v>256.0898094487516</v>
       </c>
       <c r="Y10" t="n">
-        <v>713.9180319651384</v>
+        <v>256.0898094487516</v>
       </c>
     </row>
     <row r="11">
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1609.543013684024</v>
+        <v>1480.983092530629</v>
       </c>
       <c r="C11" t="n">
-        <v>1311.308193474143</v>
+        <v>1182.748272320748</v>
       </c>
       <c r="D11" t="n">
-        <v>1282.476607474693</v>
+        <v>892.2478248246039</v>
       </c>
       <c r="E11" t="n">
-        <v>974.8337638784258</v>
+        <v>584.6049812283368</v>
       </c>
       <c r="F11" t="n">
-        <v>652.8800066955919</v>
+        <v>380.3412019289242</v>
       </c>
       <c r="G11" t="n">
-        <v>334.6579324707834</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="H11" t="n">
-        <v>105.5155633244624</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="I11" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="J11" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129438</v>
       </c>
       <c r="K11" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L11" t="n">
         <v>1059.071548358934</v>
@@ -5069,22 +5069,22 @@
         <v>3034.383511434015</v>
       </c>
       <c r="T11" t="n">
-        <v>3034.383511434015</v>
+        <v>2905.82359028062</v>
       </c>
       <c r="U11" t="n">
-        <v>3034.383511434015</v>
+        <v>2905.82359028062</v>
       </c>
       <c r="V11" t="n">
-        <v>2787.217383424722</v>
+        <v>2658.657462271327</v>
       </c>
       <c r="W11" t="n">
-        <v>2511.159029680198</v>
+        <v>2382.599108526803</v>
       </c>
       <c r="X11" t="n">
-        <v>2216.647105900443</v>
+        <v>2088.087184747048</v>
       </c>
       <c r="Y11" t="n">
-        <v>1915.097078108233</v>
+        <v>1786.537156954837</v>
       </c>
     </row>
     <row r="12">
@@ -5121,19 +5121,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K12" t="n">
-        <v>318.9689542635005</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L12" t="n">
-        <v>802.5350401618138</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M12" t="n">
-        <v>802.5350401618138</v>
+        <v>1173.45686322911</v>
       </c>
       <c r="N12" t="n">
-        <v>1458.313011372373</v>
+        <v>1829.234834439669</v>
       </c>
       <c r="O12" t="n">
-        <v>1974.833293963354</v>
+        <v>2345.75511703065</v>
       </c>
       <c r="P12" t="n">
         <v>2380.454662679751</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>493.0843669550999</v>
+        <v>493.0843669551004</v>
       </c>
       <c r="C13" t="n">
-        <v>417.8199303082775</v>
+        <v>417.819930308278</v>
       </c>
       <c r="D13" t="n">
-        <v>357.1274984979806</v>
+        <v>357.127498497981</v>
       </c>
       <c r="E13" t="n">
-        <v>296.5093676443714</v>
+        <v>296.5093676443719</v>
       </c>
       <c r="F13" t="n">
-        <v>234.124114144533</v>
+        <v>234.1241141445332</v>
       </c>
       <c r="G13" t="n">
-        <v>160.810741531167</v>
+        <v>160.8107415311671</v>
       </c>
       <c r="H13" t="n">
-        <v>100.2728717798495</v>
+        <v>100.2728717798494</v>
       </c>
       <c r="I13" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J13" t="n">
-        <v>125.396746836251</v>
+        <v>125.3967468362516</v>
       </c>
       <c r="K13" t="n">
-        <v>300.283149675766</v>
+        <v>300.2831496757667</v>
       </c>
       <c r="L13" t="n">
-        <v>557.4621512791389</v>
+        <v>557.4621512791398</v>
       </c>
       <c r="M13" t="n">
-        <v>836.8050913469763</v>
+        <v>836.8050913469772</v>
       </c>
       <c r="N13" t="n">
-        <v>1113.046087107759</v>
+        <v>1113.04608710776</v>
       </c>
       <c r="O13" t="n">
-        <v>1368.80221587904</v>
+        <v>1368.802215879041</v>
       </c>
       <c r="P13" t="n">
-        <v>1581.729743385192</v>
+        <v>1581.729743385193</v>
       </c>
       <c r="Q13" t="n">
-        <v>1678.203301484816</v>
+        <v>1678.203301484817</v>
       </c>
       <c r="R13" t="n">
         <v>1649.242993404582</v>
       </c>
       <c r="S13" t="n">
-        <v>1541.367590874319</v>
+        <v>1541.36759087432</v>
       </c>
       <c r="T13" t="n">
         <v>1400.589220329742</v>
       </c>
       <c r="U13" t="n">
-        <v>1210.091109858831</v>
+        <v>1210.091109858832</v>
       </c>
       <c r="V13" t="n">
         <v>1039.052445966844</v>
       </c>
       <c r="W13" t="n">
-        <v>850.6627251852096</v>
+        <v>850.6627251852103</v>
       </c>
       <c r="X13" t="n">
-        <v>711.5230842553811</v>
+        <v>711.5230842553817</v>
       </c>
       <c r="Y13" t="n">
-        <v>583.3517043592128</v>
+        <v>583.3517043592134</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5252,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1695.897093415104</v>
+        <v>1320.171044252415</v>
       </c>
       <c r="C14" t="n">
-        <v>1397.662273205223</v>
+        <v>1320.171044252415</v>
       </c>
       <c r="D14" t="n">
-        <v>1107.16182570908</v>
+        <v>1282.476607474693</v>
       </c>
       <c r="E14" t="n">
-        <v>974.8337638784258</v>
+        <v>974.833763878426</v>
       </c>
       <c r="F14" t="n">
-        <v>652.8800066955919</v>
+        <v>652.8800066955921</v>
       </c>
       <c r="G14" t="n">
-        <v>334.6579324707834</v>
+        <v>334.6579324707836</v>
       </c>
       <c r="H14" t="n">
-        <v>105.5155633244623</v>
+        <v>105.5155633244625</v>
       </c>
       <c r="I14" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="J14" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129438</v>
       </c>
       <c r="K14" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L14" t="n">
         <v>1059.071548358934</v>
@@ -5306,22 +5306,22 @@
         <v>3034.383511434015</v>
       </c>
       <c r="T14" t="n">
-        <v>3034.383511434015</v>
+        <v>2905.823590280621</v>
       </c>
       <c r="U14" t="n">
-        <v>2873.571463155802</v>
+        <v>2745.011542002408</v>
       </c>
       <c r="V14" t="n">
-        <v>2873.571463155802</v>
+        <v>2497.845413993114</v>
       </c>
       <c r="W14" t="n">
-        <v>2597.513109411278</v>
+        <v>2221.78706024859</v>
       </c>
       <c r="X14" t="n">
-        <v>2303.001185631523</v>
+        <v>1927.275136468835</v>
       </c>
       <c r="Y14" t="n">
-        <v>2001.451157839313</v>
+        <v>1625.725108676625</v>
       </c>
     </row>
     <row r="15">
@@ -5355,25 +5355,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J15" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K15" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L15" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M15" t="n">
-        <v>865.4243596646552</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N15" t="n">
-        <v>1458.313011372373</v>
+        <v>1629.56928853388</v>
       </c>
       <c r="O15" t="n">
-        <v>1974.833293963354</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="P15" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q15" t="n">
         <v>2380.454662679751</v>
@@ -5410,43 +5410,43 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>493.0843669551002</v>
+        <v>493.0843669551001</v>
       </c>
       <c r="C16" t="n">
-        <v>417.8199303082778</v>
+        <v>417.8199303082777</v>
       </c>
       <c r="D16" t="n">
-        <v>357.127498497981</v>
+        <v>357.1274984979807</v>
       </c>
       <c r="E16" t="n">
-        <v>296.509367644372</v>
+        <v>296.5093676443719</v>
       </c>
       <c r="F16" t="n">
-        <v>234.1241141445331</v>
+        <v>234.124114144533</v>
       </c>
       <c r="G16" t="n">
-        <v>160.810741531167</v>
+        <v>160.8107415311667</v>
       </c>
       <c r="H16" t="n">
-        <v>100.2728717798495</v>
+        <v>100.2728717798493</v>
       </c>
       <c r="I16" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J16" t="n">
-        <v>125.3967468362513</v>
+        <v>125.3967468362514</v>
       </c>
       <c r="K16" t="n">
-        <v>300.2831496757665</v>
+        <v>300.283149675766</v>
       </c>
       <c r="L16" t="n">
-        <v>557.4621512791393</v>
+        <v>557.4621512791389</v>
       </c>
       <c r="M16" t="n">
-        <v>836.8050913469765</v>
+        <v>836.805091346976</v>
       </c>
       <c r="N16" t="n">
-        <v>1113.046087107759</v>
+        <v>1113.046087107758</v>
       </c>
       <c r="O16" t="n">
         <v>1368.80221587904</v>
@@ -5473,13 +5473,13 @@
         <v>1039.052445966844</v>
       </c>
       <c r="W16" t="n">
-        <v>850.6627251852101</v>
+        <v>850.6627251852099</v>
       </c>
       <c r="X16" t="n">
-        <v>711.5230842553815</v>
+        <v>711.5230842553814</v>
       </c>
       <c r="Y16" t="n">
-        <v>583.3517043592132</v>
+        <v>583.351704359213</v>
       </c>
     </row>
     <row r="17">
@@ -5498,25 +5498,25 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E17" t="n">
-        <v>827.8895422975454</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F17" t="n">
-        <v>542.6718405099316</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G17" t="n">
-        <v>261.1858216803433</v>
+        <v>261.1858216803431</v>
       </c>
       <c r="H17" t="n">
-        <v>68.7795079292424</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I17" t="n">
-        <v>62.11912770411573</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J17" t="n">
-        <v>206.7689006129438</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K17" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L17" t="n">
         <v>1059.071548358934</v>
@@ -5592,16 +5592,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J18" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K18" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L18" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M18" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N18" t="n">
         <v>1223.947919817482</v>
@@ -5674,19 +5674,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K19" t="n">
-        <v>143.9541688140574</v>
+        <v>273.0105384364859</v>
       </c>
       <c r="L19" t="n">
-        <v>308.0818086878572</v>
+        <v>442.7178209184691</v>
       </c>
       <c r="M19" t="n">
-        <v>494.3733870261212</v>
+        <v>629.0093992567331</v>
       </c>
       <c r="N19" t="n">
-        <v>677.5630210573304</v>
+        <v>812.1990332879423</v>
       </c>
       <c r="O19" t="n">
-        <v>969.324157721467</v>
+        <v>974.9038003296503</v>
       </c>
       <c r="P19" t="n">
         <v>1094.779966106229</v>
@@ -5744,25 +5744,25 @@
         <v>261.1858216803431</v>
       </c>
       <c r="H20" t="n">
-        <v>68.77950792924221</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I20" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J20" t="n">
-        <v>206.7689006129444</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K20" t="n">
-        <v>565.7512566404062</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L20" t="n">
-        <v>1059.071548358935</v>
+        <v>1059.071548358934</v>
       </c>
       <c r="M20" t="n">
         <v>1605.072448403515</v>
       </c>
       <c r="N20" t="n">
-        <v>2132.883732040978</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O20" t="n">
         <v>2572.923332933306</v>
@@ -5835,16 +5835,16 @@
         <v>494.9732559860694</v>
       </c>
       <c r="L21" t="n">
-        <v>973.7913173233209</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M21" t="n">
-        <v>973.7913173233209</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N21" t="n">
-        <v>1629.56928853388</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O21" t="n">
-        <v>2146.089571124861</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P21" t="n">
         <v>2146.089571124861</v>
@@ -5914,10 +5914,10 @@
         <v>143.9541688140574</v>
       </c>
       <c r="L22" t="n">
-        <v>313.6614512960405</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M22" t="n">
-        <v>629.0093992567331</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N22" t="n">
         <v>812.1990332879423</v>
@@ -5972,25 +5972,25 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E23" t="n">
-        <v>827.8895422975454</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F23" t="n">
-        <v>542.6718405099316</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G23" t="n">
-        <v>261.1858216803432</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H23" t="n">
-        <v>68.77950792924224</v>
+        <v>68.77950792924243</v>
       </c>
       <c r="I23" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="J23" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129438</v>
       </c>
       <c r="K23" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L23" t="n">
         <v>1059.071548358934</v>
@@ -6011,7 +6011,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R23" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S23" t="n">
         <v>3071.119566829236</v>
@@ -6023,7 +6023,7 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V23" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W23" t="n">
         <v>2405.467337224691</v>
@@ -6066,25 +6066,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J24" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K24" t="n">
-        <v>494.9732559860694</v>
+        <v>96.81867335321709</v>
       </c>
       <c r="L24" t="n">
-        <v>978.5393418843826</v>
+        <v>580.3847592515303</v>
       </c>
       <c r="M24" t="n">
-        <v>978.5393418843826</v>
+        <v>1208.156408878212</v>
       </c>
       <c r="N24" t="n">
-        <v>1223.947919817482</v>
+        <v>1863.93438008877</v>
       </c>
       <c r="O24" t="n">
-        <v>1740.468202408463</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P24" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q24" t="n">
         <v>2380.454662679751</v>
@@ -6139,34 +6139,34 @@
         <v>87.33863074072673</v>
       </c>
       <c r="H25" t="n">
-        <v>63.53681638462918</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I25" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J25" t="n">
-        <v>67.69877031229933</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K25" t="n">
-        <v>278.5901810446697</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L25" t="n">
-        <v>442.7178209184696</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M25" t="n">
-        <v>629.0093992567336</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N25" t="n">
-        <v>812.1990332879427</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O25" t="n">
-        <v>974.9038003296507</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P25" t="n">
-        <v>1094.779966106229</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q25" t="n">
-        <v>1098.20216247628</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R25" t="n">
         <v>1098.20216247628</v>
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1869.096203238272</v>
+        <v>1712.93578632066</v>
       </c>
       <c r="C26" t="n">
-        <v>1570.86138302839</v>
+        <v>1580.832349812202</v>
       </c>
       <c r="D26" t="n">
-        <v>1280.360935532246</v>
+        <v>1290.331902316058</v>
       </c>
       <c r="E26" t="n">
-        <v>972.7180919359794</v>
+        <v>982.6890587197909</v>
       </c>
       <c r="F26" t="n">
-        <v>650.7643347531455</v>
+        <v>660.735301536957</v>
       </c>
       <c r="G26" t="n">
-        <v>332.5422605283368</v>
+        <v>342.5132273121485</v>
       </c>
       <c r="H26" t="n">
-        <v>103.3998913820157</v>
+        <v>113.3708581658272</v>
       </c>
       <c r="I26" t="n">
-        <v>68.44993244283316</v>
+        <v>69.97442254548039</v>
       </c>
       <c r="J26" t="n">
-        <v>306.1510670812345</v>
+        <v>307.6755571838818</v>
       </c>
       <c r="K26" t="n">
-        <v>758.1847848382697</v>
+        <v>759.7092749409169</v>
       </c>
       <c r="L26" t="n">
-        <v>1319.797278296803</v>
+        <v>1253.029566659446</v>
       </c>
       <c r="M26" t="n">
-        <v>1865.798178341384</v>
+        <v>1848.971321744172</v>
       </c>
       <c r="N26" t="n">
-        <v>2393.609461978846</v>
+        <v>2376.782605381634</v>
       </c>
       <c r="O26" t="n">
-        <v>2833.649062871174</v>
+        <v>2816.822206273962</v>
       </c>
       <c r="P26" t="n">
-        <v>3181.836555002696</v>
+        <v>3165.009698405484</v>
       </c>
       <c r="Q26" t="n">
-        <v>3366.682115143645</v>
+        <v>3442.906620276006</v>
       </c>
       <c r="R26" t="n">
-        <v>3422.496622141658</v>
+        <v>3498.72112727402</v>
       </c>
       <c r="S26" t="n">
-        <v>3422.496622141658</v>
+        <v>3427.148253502259</v>
       </c>
       <c r="T26" t="n">
-        <v>3293.936700988263</v>
+        <v>3298.588332348864</v>
       </c>
       <c r="U26" t="n">
-        <v>3293.936700988263</v>
+        <v>3137.776284070651</v>
       </c>
       <c r="V26" t="n">
-        <v>3046.77057297897</v>
+        <v>2890.610156061358</v>
       </c>
       <c r="W26" t="n">
-        <v>2770.712219234445</v>
+        <v>2614.551802316834</v>
       </c>
       <c r="X26" t="n">
-        <v>2476.200295454691</v>
+        <v>2320.039878537079</v>
       </c>
       <c r="Y26" t="n">
-        <v>2174.65026766248</v>
+        <v>2018.489850744869</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6279,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>867.8159155828641</v>
+        <v>869.3404056855113</v>
       </c>
       <c r="C27" t="n">
-        <v>717.1616851429563</v>
+        <v>718.6861752456035</v>
       </c>
       <c r="D27" t="n">
-        <v>587.0727177644367</v>
+        <v>588.5972078670839</v>
       </c>
       <c r="E27" t="n">
-        <v>450.6262268753244</v>
+        <v>452.1507169779716</v>
       </c>
       <c r="F27" t="n">
-        <v>326.1944207584562</v>
+        <v>327.7189108611034</v>
       </c>
       <c r="G27" t="n">
-        <v>206.1346028303207</v>
+        <v>207.6590929329679</v>
       </c>
       <c r="H27" t="n">
-        <v>117.8371864309216</v>
+        <v>119.3616765335688</v>
       </c>
       <c r="I27" t="n">
-        <v>68.44993244283316</v>
+        <v>69.97442254548039</v>
       </c>
       <c r="J27" t="n">
-        <v>181.5649146625605</v>
+        <v>183.0894047652078</v>
       </c>
       <c r="K27" t="n">
-        <v>501.304060724787</v>
+        <v>502.8285508274342</v>
       </c>
       <c r="L27" t="n">
-        <v>984.8701466231003</v>
+        <v>986.3946367257474</v>
       </c>
       <c r="M27" t="n">
-        <v>984.8701466231003</v>
+        <v>1231.803214658847</v>
       </c>
       <c r="N27" t="n">
-        <v>1230.2787245562</v>
+        <v>1231.803214658847</v>
       </c>
       <c r="O27" t="n">
-        <v>1746.799007147181</v>
+        <v>1748.323497249828</v>
       </c>
       <c r="P27" t="n">
-        <v>2152.420375863579</v>
+        <v>2153.944865966226</v>
       </c>
       <c r="Q27" t="n">
-        <v>2386.785467418469</v>
+        <v>2388.309957521116</v>
       </c>
       <c r="R27" t="n">
-        <v>2362.868424316533</v>
+        <v>2364.392914419181</v>
       </c>
       <c r="S27" t="n">
-        <v>2227.937747216402</v>
+        <v>2229.46223731905</v>
       </c>
       <c r="T27" t="n">
-        <v>2050.953935415311</v>
+        <v>2052.478425517958</v>
       </c>
       <c r="U27" t="n">
-        <v>1840.890792093953</v>
+        <v>1842.4152821966</v>
       </c>
       <c r="V27" t="n">
-        <v>1618.35079046502</v>
+        <v>1619.875280567667</v>
       </c>
       <c r="W27" t="n">
-        <v>1388.233544598306</v>
+        <v>1389.758034700954</v>
       </c>
       <c r="X27" t="n">
-        <v>1198.926466948318</v>
+        <v>1200.450957050965</v>
       </c>
       <c r="Y27" t="n">
-        <v>1019.612250023825</v>
+        <v>1021.136740126473</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>499.4151716938177</v>
+        <v>500.9396617964653</v>
       </c>
       <c r="C28" t="n">
-        <v>424.1507350469956</v>
+        <v>425.6752251496432</v>
       </c>
       <c r="D28" t="n">
-        <v>363.4583032366986</v>
+        <v>364.9827933393462</v>
       </c>
       <c r="E28" t="n">
-        <v>302.8401723830895</v>
+        <v>304.3646624857367</v>
       </c>
       <c r="F28" t="n">
-        <v>240.4549188832507</v>
+        <v>241.9794089858981</v>
       </c>
       <c r="G28" t="n">
-        <v>167.1415462698846</v>
+        <v>168.6660363725321</v>
       </c>
       <c r="H28" t="n">
-        <v>106.6036765185669</v>
+        <v>108.1281666212142</v>
       </c>
       <c r="I28" t="n">
-        <v>68.44993244283316</v>
+        <v>69.97442254548039</v>
       </c>
       <c r="J28" t="n">
-        <v>131.7275515749691</v>
+        <v>133.2520416776163</v>
       </c>
       <c r="K28" t="n">
-        <v>306.6139544144842</v>
+        <v>308.1384445171313</v>
       </c>
       <c r="L28" t="n">
-        <v>563.7929560178573</v>
+        <v>565.3174461205042</v>
       </c>
       <c r="M28" t="n">
-        <v>843.1358960856945</v>
+        <v>844.6603861883414</v>
       </c>
       <c r="N28" t="n">
-        <v>1119.376891846477</v>
+        <v>1120.901381949124</v>
       </c>
       <c r="O28" t="n">
-        <v>1375.133020617758</v>
+        <v>1376.657510720406</v>
       </c>
       <c r="P28" t="n">
-        <v>1588.06054812391</v>
+        <v>1589.585038226557</v>
       </c>
       <c r="Q28" t="n">
-        <v>1684.534106223534</v>
+        <v>1686.058596326181</v>
       </c>
       <c r="R28" t="n">
-        <v>1655.573798143299</v>
+        <v>1657.098288245947</v>
       </c>
       <c r="S28" t="n">
-        <v>1547.698395613037</v>
+        <v>1549.222885715685</v>
       </c>
       <c r="T28" t="n">
-        <v>1406.920025068459</v>
+        <v>1408.444515171107</v>
       </c>
       <c r="U28" t="n">
-        <v>1216.421914597549</v>
+        <v>1217.946404700197</v>
       </c>
       <c r="V28" t="n">
-        <v>1045.383250705561</v>
+        <v>1046.907740808209</v>
       </c>
       <c r="W28" t="n">
-        <v>856.9935299239273</v>
+        <v>858.5180200265752</v>
       </c>
       <c r="X28" t="n">
-        <v>717.8538889940987</v>
+        <v>719.3783790967466</v>
       </c>
       <c r="Y28" t="n">
-        <v>589.6825090979306</v>
+        <v>591.2069992005783</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1877.542679919435</v>
+        <v>1879.067170022083</v>
       </c>
       <c r="C29" t="n">
-        <v>1579.307859709555</v>
+        <v>1580.832349812202</v>
       </c>
       <c r="D29" t="n">
-        <v>1288.807412213411</v>
+        <v>1290.331902316058</v>
       </c>
       <c r="E29" t="n">
-        <v>981.1645686171435</v>
+        <v>982.6890587197906</v>
       </c>
       <c r="F29" t="n">
-        <v>659.2108114343096</v>
+        <v>660.7353015369567</v>
       </c>
       <c r="G29" t="n">
-        <v>340.9887372095011</v>
+        <v>342.5132273121483</v>
       </c>
       <c r="H29" t="n">
-        <v>111.84636806318</v>
+        <v>113.3708581658272</v>
       </c>
       <c r="I29" t="n">
-        <v>68.44993244283316</v>
+        <v>69.97442254548039</v>
       </c>
       <c r="J29" t="n">
-        <v>213.0997053516613</v>
+        <v>214.6241954543085</v>
       </c>
       <c r="K29" t="n">
-        <v>640.3742631191277</v>
+        <v>573.6065514817703</v>
       </c>
       <c r="L29" t="n">
-        <v>1226.74591656723</v>
+        <v>1066.926843200299</v>
       </c>
       <c r="M29" t="n">
-        <v>1865.798178341384</v>
+        <v>1612.92774324488</v>
       </c>
       <c r="N29" t="n">
-        <v>2393.609461978846</v>
+        <v>2190.679881922487</v>
       </c>
       <c r="O29" t="n">
-        <v>2833.649062871174</v>
+        <v>2723.770844544389</v>
       </c>
       <c r="P29" t="n">
-        <v>3181.836555002696</v>
+        <v>3165.009698405484</v>
       </c>
       <c r="Q29" t="n">
-        <v>3366.682115143645</v>
+        <v>3442.906620276006</v>
       </c>
       <c r="R29" t="n">
-        <v>3422.496622141658</v>
+        <v>3498.72112727402</v>
       </c>
       <c r="S29" t="n">
-        <v>3350.923748369897</v>
+        <v>3427.148253502259</v>
       </c>
       <c r="T29" t="n">
-        <v>3222.363827216502</v>
+        <v>3298.588332348864</v>
       </c>
       <c r="U29" t="n">
-        <v>3222.363827216502</v>
+        <v>3137.776284070651</v>
       </c>
       <c r="V29" t="n">
-        <v>2975.197699207208</v>
+        <v>2890.610156061358</v>
       </c>
       <c r="W29" t="n">
-        <v>2779.15869591561</v>
+        <v>2614.551802316834</v>
       </c>
       <c r="X29" t="n">
-        <v>2484.646772135855</v>
+        <v>2486.171262238502</v>
       </c>
       <c r="Y29" t="n">
-        <v>2183.096744343644</v>
+        <v>2184.621234446292</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6516,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>867.8159155828641</v>
+        <v>869.3404056855113</v>
       </c>
       <c r="C30" t="n">
-        <v>717.1616851429563</v>
+        <v>718.6861752456035</v>
       </c>
       <c r="D30" t="n">
-        <v>587.0727177644367</v>
+        <v>588.5972078670839</v>
       </c>
       <c r="E30" t="n">
-        <v>450.6262268753244</v>
+        <v>452.1507169779716</v>
       </c>
       <c r="F30" t="n">
-        <v>326.1944207584562</v>
+        <v>327.7189108611034</v>
       </c>
       <c r="G30" t="n">
-        <v>206.1346028303207</v>
+        <v>207.6590929329679</v>
       </c>
       <c r="H30" t="n">
-        <v>117.8371864309216</v>
+        <v>119.3616765335688</v>
       </c>
       <c r="I30" t="n">
-        <v>68.44993244283316</v>
+        <v>69.97442254548039</v>
       </c>
       <c r="J30" t="n">
-        <v>181.5649146625605</v>
+        <v>183.0894047652078</v>
       </c>
       <c r="K30" t="n">
-        <v>501.304060724787</v>
+        <v>502.8285508274342</v>
       </c>
       <c r="L30" t="n">
-        <v>984.8701466231003</v>
+        <v>604.0315650321659</v>
       </c>
       <c r="M30" t="n">
-        <v>984.8701466231003</v>
+        <v>1231.803214658847</v>
       </c>
       <c r="N30" t="n">
-        <v>1230.2787245562</v>
+        <v>1231.803214658847</v>
       </c>
       <c r="O30" t="n">
-        <v>1746.799007147181</v>
+        <v>1748.323497249828</v>
       </c>
       <c r="P30" t="n">
-        <v>2152.420375863579</v>
+        <v>2153.944865966226</v>
       </c>
       <c r="Q30" t="n">
-        <v>2386.785467418469</v>
+        <v>2388.309957521116</v>
       </c>
       <c r="R30" t="n">
-        <v>2362.868424316533</v>
+        <v>2364.392914419181</v>
       </c>
       <c r="S30" t="n">
-        <v>2227.937747216402</v>
+        <v>2229.46223731905</v>
       </c>
       <c r="T30" t="n">
-        <v>2050.953935415311</v>
+        <v>2052.478425517958</v>
       </c>
       <c r="U30" t="n">
-        <v>1840.890792093953</v>
+        <v>1842.4152821966</v>
       </c>
       <c r="V30" t="n">
-        <v>1618.35079046502</v>
+        <v>1619.875280567667</v>
       </c>
       <c r="W30" t="n">
-        <v>1388.233544598306</v>
+        <v>1389.758034700954</v>
       </c>
       <c r="X30" t="n">
-        <v>1198.926466948318</v>
+        <v>1200.450957050965</v>
       </c>
       <c r="Y30" t="n">
-        <v>1019.612250023825</v>
+        <v>1021.136740126473</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>499.4151716938177</v>
+        <v>500.9396617964654</v>
       </c>
       <c r="C31" t="n">
-        <v>424.1507350469952</v>
+        <v>425.675225149643</v>
       </c>
       <c r="D31" t="n">
-        <v>363.4583032366984</v>
+        <v>364.9827933393458</v>
       </c>
       <c r="E31" t="n">
-        <v>302.8401723830896</v>
+        <v>304.364662485737</v>
       </c>
       <c r="F31" t="n">
-        <v>240.4549188832507</v>
+        <v>241.9794089858983</v>
       </c>
       <c r="G31" t="n">
-        <v>167.1415462698847</v>
+        <v>168.6660363725321</v>
       </c>
       <c r="H31" t="n">
-        <v>106.603676518567</v>
+        <v>108.1281666212144</v>
       </c>
       <c r="I31" t="n">
-        <v>68.44993244283316</v>
+        <v>69.97442254548039</v>
       </c>
       <c r="J31" t="n">
-        <v>131.7275515749689</v>
+        <v>133.2520416776162</v>
       </c>
       <c r="K31" t="n">
-        <v>306.6139544144839</v>
+        <v>308.1384445171313</v>
       </c>
       <c r="L31" t="n">
-        <v>563.792956017857</v>
+        <v>565.3174461205042</v>
       </c>
       <c r="M31" t="n">
-        <v>843.1358960856944</v>
+        <v>844.6603861883416</v>
       </c>
       <c r="N31" t="n">
-        <v>1119.376891846477</v>
+        <v>1120.901381949124</v>
       </c>
       <c r="O31" t="n">
-        <v>1375.133020617758</v>
+        <v>1376.657510720406</v>
       </c>
       <c r="P31" t="n">
-        <v>1588.06054812391</v>
+        <v>1589.585038226557</v>
       </c>
       <c r="Q31" t="n">
-        <v>1684.534106223535</v>
+        <v>1686.058596326182</v>
       </c>
       <c r="R31" t="n">
-        <v>1655.573798143299</v>
+        <v>1657.098288245947</v>
       </c>
       <c r="S31" t="n">
-        <v>1547.698395613037</v>
+        <v>1549.222885715685</v>
       </c>
       <c r="T31" t="n">
-        <v>1406.92002506846</v>
+        <v>1408.444515171107</v>
       </c>
       <c r="U31" t="n">
-        <v>1216.421914597549</v>
+        <v>1217.946404700197</v>
       </c>
       <c r="V31" t="n">
-        <v>1045.383250705562</v>
+        <v>1046.907740808209</v>
       </c>
       <c r="W31" t="n">
-        <v>856.9935299239276</v>
+        <v>858.5180200265752</v>
       </c>
       <c r="X31" t="n">
-        <v>717.853888994099</v>
+        <v>719.3783790967467</v>
       </c>
       <c r="Y31" t="n">
-        <v>589.6825090979306</v>
+        <v>591.2069992005784</v>
       </c>
     </row>
     <row r="32">
@@ -6674,7 +6674,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1614.059487414178</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C32" t="n">
         <v>1352.560722599516</v>
@@ -6683,22 +6683,22 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E32" t="n">
-        <v>827.8895422975454</v>
+        <v>827.8895422975447</v>
       </c>
       <c r="F32" t="n">
-        <v>542.6718405099316</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G32" t="n">
-        <v>261.1858216803432</v>
+        <v>261.1858216803425</v>
       </c>
       <c r="H32" t="n">
         <v>68.77950792924226</v>
       </c>
       <c r="I32" t="n">
-        <v>62.11912770411556</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J32" t="n">
-        <v>206.7689006129437</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K32" t="n">
         <v>565.7512566404055</v>
@@ -6722,28 +6722,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R32" t="n">
-        <v>3105.956385205778</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S32" t="n">
-        <v>3071.119566829237</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T32" t="n">
-        <v>2979.295701071062</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U32" t="n">
-        <v>2855.219708188069</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V32" t="n">
-        <v>2644.789635573996</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W32" t="n">
-        <v>2405.467337224692</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X32" t="n">
-        <v>2147.691468840157</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y32" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="33">
@@ -6771,10 +6771,10 @@
         <v>199.803798091603</v>
       </c>
       <c r="H33" t="n">
-        <v>111.506381692204</v>
+        <v>111.5063816922039</v>
       </c>
       <c r="I33" t="n">
-        <v>62.11912770411556</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J33" t="n">
         <v>175.2341099238429</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>235.9319791885595</v>
+        <v>235.9319791885596</v>
       </c>
       <c r="C34" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369573</v>
       </c>
       <c r="D34" t="n">
-        <v>173.4472215218804</v>
+        <v>173.4472215218805</v>
       </c>
       <c r="E34" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634914</v>
       </c>
       <c r="F34" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588728</v>
       </c>
       <c r="G34" t="n">
-        <v>87.33863074072676</v>
+        <v>87.33863074072679</v>
       </c>
       <c r="H34" t="n">
         <v>63.5368163846292</v>
       </c>
       <c r="I34" t="n">
-        <v>62.11912770411556</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J34" t="n">
-        <v>67.69877031229927</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K34" t="n">
-        <v>149.5338114222411</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L34" t="n">
-        <v>313.6614512960409</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M34" t="n">
-        <v>499.953029634305</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N34" t="n">
-        <v>683.1426636655142</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O34" t="n">
-        <v>845.8474307072222</v>
+        <v>845.8474307072225</v>
       </c>
       <c r="P34" t="n">
-        <v>1094.779966106229</v>
+        <v>965.7235964838011</v>
       </c>
       <c r="Q34" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="R34" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S34" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T34" t="n">
-        <v>923.0205001918807</v>
+        <v>923.020500191881</v>
       </c>
       <c r="U34" t="n">
-        <v>769.2584451161902</v>
+        <v>769.2584451161904</v>
       </c>
       <c r="V34" t="n">
-        <v>634.9558366194228</v>
+        <v>634.9558366194231</v>
       </c>
       <c r="W34" t="n">
-        <v>483.3021712330089</v>
+        <v>483.3021712330091</v>
       </c>
       <c r="X34" t="n">
-        <v>380.8985856984005</v>
+        <v>380.8985856984007</v>
       </c>
       <c r="Y34" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974525</v>
       </c>
     </row>
     <row r="35">
@@ -6929,7 +6929,7 @@
         <v>261.185821680343</v>
       </c>
       <c r="H35" t="n">
-        <v>68.77950792924224</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I35" t="n">
         <v>62.11912770411553</v>
@@ -6959,7 +6959,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R35" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S35" t="n">
         <v>3071.119566829236</v>
@@ -7023,7 +7023,7 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M36" t="n">
-        <v>978.5393418843826</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N36" t="n">
         <v>1223.947919817482</v>
@@ -7087,7 +7087,7 @@
         <v>87.33863074072673</v>
       </c>
       <c r="H37" t="n">
-        <v>63.53681638462918</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I37" t="n">
         <v>62.11912770411553</v>
@@ -7099,22 +7099,22 @@
         <v>143.9541688140574</v>
       </c>
       <c r="L37" t="n">
-        <v>437.1381783102856</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M37" t="n">
-        <v>629.0093992567336</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N37" t="n">
-        <v>812.1990332879427</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O37" t="n">
-        <v>974.9038003296507</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P37" t="n">
-        <v>1094.779966106229</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q37" t="n">
-        <v>1098.20216247628</v>
+        <v>1090.581152532863</v>
       </c>
       <c r="R37" t="n">
         <v>1098.20216247628</v>
@@ -7148,10 +7148,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1614.059487414178</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C38" t="n">
-        <v>1352.560722599517</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D38" t="n">
         <v>1098.796330498593</v>
@@ -7166,25 +7166,25 @@
         <v>261.1858216803435</v>
       </c>
       <c r="H38" t="n">
-        <v>68.77950792924223</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I38" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J38" t="n">
-        <v>206.768900612944</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K38" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L38" t="n">
-        <v>1059.071548358935</v>
+        <v>1059.071548358934</v>
       </c>
       <c r="M38" t="n">
         <v>1605.072448403515</v>
       </c>
       <c r="N38" t="n">
-        <v>2132.883732040978</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O38" t="n">
         <v>2572.923332933306</v>
@@ -7211,13 +7211,13 @@
         <v>2644.789635573995</v>
       </c>
       <c r="W38" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X38" t="n">
-        <v>2147.691468840157</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y38" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="39">
@@ -7251,25 +7251,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J39" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K39" t="n">
-        <v>207.7175872278004</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L39" t="n">
-        <v>691.2836731261136</v>
+        <v>596.176270190801</v>
       </c>
       <c r="M39" t="n">
-        <v>1319.055322752795</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N39" t="n">
-        <v>1974.833293963354</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O39" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P39" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q39" t="n">
         <v>2380.454662679751</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C40" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D40" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E40" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F40" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G40" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H40" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I40" t="n">
         <v>62.11912770411553</v>
@@ -7333,19 +7333,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K40" t="n">
-        <v>143.9541688140574</v>
+        <v>149.5338114222405</v>
       </c>
       <c r="L40" t="n">
-        <v>308.0818086878572</v>
+        <v>313.6614512960402</v>
       </c>
       <c r="M40" t="n">
-        <v>494.3733870261212</v>
+        <v>499.9530296343043</v>
       </c>
       <c r="N40" t="n">
-        <v>677.5630210573304</v>
+        <v>683.1426636655135</v>
       </c>
       <c r="O40" t="n">
-        <v>845.8474307072222</v>
+        <v>845.8474307072216</v>
       </c>
       <c r="P40" t="n">
         <v>1094.779966106229</v>
@@ -7360,22 +7360,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T40" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U40" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V40" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W40" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X40" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y40" t="n">
-        <v>289.4632611974523</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="41">
@@ -7385,25 +7385,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1716.479455850247</v>
+        <v>1486.775892005456</v>
       </c>
       <c r="C41" t="n">
-        <v>1436.800632925387</v>
+        <v>1275.954704409317</v>
       </c>
       <c r="D41" t="n">
-        <v>1164.856182714263</v>
+        <v>999.0302531962128</v>
       </c>
       <c r="E41" t="n">
-        <v>875.769336403017</v>
+        <v>704.9634058829855</v>
       </c>
       <c r="F41" t="n">
-        <v>572.3715765052036</v>
+        <v>396.5856449831913</v>
       </c>
       <c r="G41" t="n">
-        <v>272.7054995654158</v>
+        <v>91.93956704142256</v>
       </c>
       <c r="H41" t="n">
-        <v>62.11912770411553</v>
+        <v>91.93956704142256</v>
       </c>
       <c r="I41" t="n">
         <v>62.11912770411553</v>
@@ -7439,22 +7439,22 @@
         <v>3105.956385205776</v>
       </c>
       <c r="T41" t="n">
-        <v>3105.956385205776</v>
+        <v>2990.972460335421</v>
       </c>
       <c r="U41" t="n">
-        <v>2963.700334212584</v>
+        <v>2843.736408340248</v>
       </c>
       <c r="V41" t="n">
-        <v>2819.929836450863</v>
+        <v>2610.146276613995</v>
       </c>
       <c r="W41" t="n">
-        <v>2562.427479991359</v>
+        <v>2347.663919152511</v>
       </c>
       <c r="X41" t="n">
-        <v>2286.471553496625</v>
+        <v>2066.727991655795</v>
       </c>
       <c r="Y41" t="n">
-        <v>2003.477522989435</v>
+        <v>1778.753960146625</v>
       </c>
     </row>
     <row r="42">
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>363.1923859599556</v>
+        <v>398.0523929738218</v>
       </c>
       <c r="C43" t="n">
-        <v>306.4839465981538</v>
+        <v>336.3639526100391</v>
       </c>
       <c r="D43" t="n">
-        <v>264.3475120728776</v>
+        <v>289.247517082782</v>
       </c>
       <c r="E43" t="n">
-        <v>222.2853785042891</v>
+        <v>242.2053825122127</v>
       </c>
       <c r="F43" t="n">
-        <v>178.4561222894711</v>
+        <v>193.3961252954137</v>
       </c>
       <c r="G43" t="n">
-        <v>123.6987469611256</v>
+        <v>133.6587489650874</v>
       </c>
       <c r="H43" t="n">
-        <v>81.71687449482862</v>
+        <v>86.6968754968095</v>
       </c>
       <c r="I43" t="n">
         <v>62.11912770411553</v>
@@ -7576,43 +7576,43 @@
         <v>308.0818086878572</v>
       </c>
       <c r="M43" t="n">
-        <v>578.4002976990732</v>
+        <v>566.3658149903108</v>
       </c>
       <c r="N43" t="n">
-        <v>761.5899317302824</v>
+        <v>855.9126447081006</v>
       </c>
       <c r="O43" t="n">
-        <v>1035.532793440613</v>
+        <v>1124.974607436389</v>
       </c>
       <c r="P43" t="n">
-        <v>1266.647053885813</v>
+        <v>1351.207968899548</v>
       </c>
       <c r="Q43" t="n">
-        <v>1381.307344924486</v>
+        <v>1460.98736095618</v>
       </c>
       <c r="R43" t="n">
-        <v>1370.903034129272</v>
+        <v>1445.603049158985</v>
       </c>
       <c r="S43" t="n">
-        <v>1281.583628884031</v>
+        <v>1351.303642911763</v>
       </c>
       <c r="T43" t="n">
-        <v>1159.361255624474</v>
+        <v>1224.101268650225</v>
       </c>
       <c r="U43" t="n">
-        <v>987.4191424385835</v>
+        <v>1047.179154462354</v>
       </c>
       <c r="V43" t="n">
-        <v>834.9364758316168</v>
+        <v>889.7164868534064</v>
       </c>
       <c r="W43" t="n">
-        <v>665.1027523350034</v>
+        <v>714.9027623548122</v>
       </c>
       <c r="X43" t="n">
-        <v>544.5191086901955</v>
+        <v>589.3391177080234</v>
       </c>
       <c r="Y43" t="n">
-        <v>434.9037260790478</v>
+        <v>474.7437340948949</v>
       </c>
     </row>
     <row r="44">
@@ -7622,25 +7622,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1726.121378992085</v>
+        <v>1746.359461862132</v>
       </c>
       <c r="C44" t="n">
-        <v>1446.442556067224</v>
+        <v>1461.700637935291</v>
       </c>
       <c r="D44" t="n">
-        <v>1174.498105856101</v>
+        <v>1184.776186722187</v>
       </c>
       <c r="E44" t="n">
-        <v>885.4112595448546</v>
+        <v>890.7093394089595</v>
       </c>
       <c r="F44" t="n">
-        <v>582.0134996470415</v>
+        <v>582.3315785091654</v>
       </c>
       <c r="G44" t="n">
-        <v>282.3474227072538</v>
+        <v>277.6855005673967</v>
       </c>
       <c r="H44" t="n">
-        <v>71.7610508459537</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I44" t="n">
         <v>62.11912770411553</v>
@@ -7673,25 +7673,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S44" t="n">
-        <v>3052.939508719036</v>
+        <v>3103.319978196925</v>
       </c>
       <c r="T44" t="n">
-        <v>2942.935584850662</v>
+        <v>3103.319978196925</v>
       </c>
       <c r="U44" t="n">
-        <v>2800.679533857469</v>
+        <v>3103.319978196925</v>
       </c>
       <c r="V44" t="n">
-        <v>2572.069403133197</v>
+        <v>2869.729846470671</v>
       </c>
       <c r="W44" t="n">
-        <v>2572.069403133197</v>
+        <v>2607.247489009187</v>
       </c>
       <c r="X44" t="n">
-        <v>2296.113476638463</v>
+        <v>2326.311561512472</v>
       </c>
       <c r="Y44" t="n">
-        <v>2013.119446131273</v>
+        <v>2038.337530003301</v>
       </c>
     </row>
     <row r="45">
@@ -7725,25 +7725,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J45" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K45" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L45" t="n">
-        <v>545.6852136024288</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M45" t="n">
-        <v>1173.45686322911</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N45" t="n">
-        <v>1829.234834439669</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O45" t="n">
-        <v>2345.75511703065</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P45" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q45" t="n">
         <v>2380.454662679751</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>363.1923859599557</v>
+        <v>398.0523929738218</v>
       </c>
       <c r="C46" t="n">
-        <v>306.4839465981539</v>
+        <v>336.3639526100391</v>
       </c>
       <c r="D46" t="n">
-        <v>264.3475120728777</v>
+        <v>289.247517082782</v>
       </c>
       <c r="E46" t="n">
-        <v>222.2853785042892</v>
+        <v>242.2053825122127</v>
       </c>
       <c r="F46" t="n">
-        <v>178.4561222894711</v>
+        <v>193.3961252954137</v>
       </c>
       <c r="G46" t="n">
-        <v>123.6987469611257</v>
+        <v>133.6587489650874</v>
       </c>
       <c r="H46" t="n">
-        <v>81.71687449482863</v>
+        <v>86.6968754968095</v>
       </c>
       <c r="I46" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J46" t="n">
-        <v>62.11912770411553</v>
+        <v>138.7025807932586</v>
       </c>
       <c r="K46" t="n">
-        <v>227.9810794870096</v>
+        <v>326.8948175897811</v>
       </c>
       <c r="L46" t="n">
-        <v>503.3468140294314</v>
+        <v>597.3796531501615</v>
       </c>
       <c r="M46" t="n">
-        <v>800.8764870363175</v>
+        <v>890.0284271750061</v>
       </c>
       <c r="N46" t="n">
-        <v>984.0661210675266</v>
+        <v>1174.984231767843</v>
       </c>
       <c r="O46" t="n">
-        <v>1146.770888109235</v>
+        <v>1337.688998809551</v>
       </c>
       <c r="P46" t="n">
-        <v>1377.885148554435</v>
+        <v>1457.565164586129</v>
       </c>
       <c r="Q46" t="n">
-        <v>1381.307344924486</v>
+        <v>1460.98736095618</v>
       </c>
       <c r="R46" t="n">
-        <v>1370.903034129272</v>
+        <v>1445.603049158985</v>
       </c>
       <c r="S46" t="n">
-        <v>1281.583628884031</v>
+        <v>1351.303642911763</v>
       </c>
       <c r="T46" t="n">
-        <v>1159.361255624474</v>
+        <v>1224.101268650225</v>
       </c>
       <c r="U46" t="n">
-        <v>987.4191424385837</v>
+        <v>1047.179154462354</v>
       </c>
       <c r="V46" t="n">
-        <v>834.9364758316169</v>
+        <v>889.7164868534064</v>
       </c>
       <c r="W46" t="n">
-        <v>665.1027523350035</v>
+        <v>714.9027623548122</v>
       </c>
       <c r="X46" t="n">
-        <v>544.5191086901956</v>
+        <v>589.3391177080234</v>
       </c>
       <c r="Y46" t="n">
-        <v>434.9037260790479</v>
+        <v>474.7437340948949</v>
       </c>
     </row>
   </sheetData>
@@ -7976,19 +7976,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K2" t="n">
-        <v>505.666843611017</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L2" t="n">
-        <v>651.5514946987026</v>
+        <v>646.4691104827259</v>
       </c>
       <c r="M2" t="n">
-        <v>662.0021186330523</v>
+        <v>642.9459923499614</v>
       </c>
       <c r="N2" t="n">
-        <v>213.7445366573346</v>
+        <v>484.4351216671351</v>
       </c>
       <c r="O2" t="n">
         <v>594.0482827698827</v>
@@ -7997,7 +7997,7 @@
         <v>150.3014472409252</v>
       </c>
       <c r="Q2" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R2" t="n">
         <v>102.5176150018526</v>
@@ -8055,28 +8055,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J3" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K3" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L3" t="n">
-        <v>578.5109386733963</v>
+        <v>153.634614531893</v>
       </c>
       <c r="M3" t="n">
-        <v>446.1108601082458</v>
+        <v>585.6080628015461</v>
       </c>
       <c r="N3" t="n">
-        <v>85.37211285416666</v>
+        <v>578.5930536064009</v>
       </c>
       <c r="O3" t="n">
-        <v>604.9646259242139</v>
+        <v>585.9084996411232</v>
       </c>
       <c r="P3" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q3" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R3" t="n">
         <v>71.01380490566048</v>
@@ -8213,28 +8213,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K5" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L5" t="n">
-        <v>651.5514946987026</v>
+        <v>646.4691104827259</v>
       </c>
       <c r="M5" t="n">
-        <v>662.0021186330523</v>
+        <v>642.9459923499614</v>
       </c>
       <c r="N5" t="n">
-        <v>661.3955583731091</v>
+        <v>420.2002448550529</v>
       </c>
       <c r="O5" t="n">
-        <v>303.412045705389</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P5" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q5" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R5" t="n">
         <v>102.5176150018526</v>
@@ -8292,7 +8292,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J6" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K6" t="n">
         <v>412.5657697396227</v>
@@ -8301,19 +8301,19 @@
         <v>90.06034685691823</v>
       </c>
       <c r="M6" t="n">
-        <v>92.38712204931191</v>
+        <v>585.6080628015461</v>
       </c>
       <c r="N6" t="n">
-        <v>517.8278884705912</v>
+        <v>319.1984868750862</v>
       </c>
       <c r="O6" t="n">
-        <v>604.9646259242139</v>
+        <v>585.9084996411232</v>
       </c>
       <c r="P6" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q6" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R6" t="n">
         <v>71.01380490566048</v>
@@ -8450,25 +8450,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K8" t="n">
-        <v>505.666843611017</v>
+        <v>457.8528328367281</v>
       </c>
       <c r="L8" t="n">
-        <v>651.5514946987026</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M8" t="n">
         <v>701.2411122488187</v>
       </c>
       <c r="N8" t="n">
-        <v>633.9592855728719</v>
+        <v>682.2612020826953</v>
       </c>
       <c r="O8" t="n">
         <v>594.0482827698827</v>
       </c>
       <c r="P8" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q8" t="n">
         <v>144.4986984183922</v>
@@ -8529,16 +8529,16 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J9" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K9" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L9" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
-        <v>186.0888404416876</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N9" t="n">
         <v>676.7842391234617</v>
@@ -8547,7 +8547,7 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P9" t="n">
-        <v>496.801919078302</v>
+        <v>153.277245266684</v>
       </c>
       <c r="Q9" t="n">
         <v>327.7205688679246</v>
@@ -8769,13 +8769,13 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K12" t="n">
-        <v>349.0412045852374</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L12" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N12" t="n">
         <v>747.7741039759435</v>
@@ -8784,7 +8784,7 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P12" t="n">
-        <v>496.801919078302</v>
+        <v>122.133410929518</v>
       </c>
       <c r="Q12" t="n">
         <v>90.98815315591399</v>
@@ -8936,7 +8936,7 @@
         <v>701.2411122488187</v>
       </c>
       <c r="N14" t="n">
-        <v>682.2612020826954</v>
+        <v>682.2612020826953</v>
       </c>
       <c r="O14" t="n">
         <v>594.0482827698827</v>
@@ -9003,7 +9003,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K15" t="n">
         <v>412.5657697396227</v>
@@ -9012,19 +9012,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N15" t="n">
-        <v>684.2495388215582</v>
+        <v>108.8653421701425</v>
       </c>
       <c r="O15" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P15" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q15" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9240,7 +9240,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K18" t="n">
         <v>412.5657697396227</v>
@@ -9252,7 +9252,7 @@
         <v>92.38712204931191</v>
       </c>
       <c r="N18" t="n">
-        <v>447.5171231095475</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O18" t="n">
         <v>614.4252180716981</v>
@@ -9483,19 +9483,19 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L21" t="n">
-        <v>573.7149542682833</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
-        <v>92.38712204931191</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N21" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O21" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P21" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q21" t="n">
         <v>327.7205688679246</v>
@@ -9714,28 +9714,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K24" t="n">
-        <v>412.5657697396227</v>
+        <v>124.646981443537</v>
       </c>
       <c r="L24" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N24" t="n">
-        <v>333.2595653118431</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O24" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P24" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q24" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R24" t="n">
         <v>71.01380490566048</v>
@@ -9960,10 +9960,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>92.38712204931191</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N27" t="n">
-        <v>333.2595653118431</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O27" t="n">
         <v>614.4252180716981</v>
@@ -10194,13 +10194,13 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L30" t="n">
-        <v>578.5109386733963</v>
+        <v>192.2856137303845</v>
       </c>
       <c r="M30" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N30" t="n">
-        <v>333.2595653118431</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O30" t="n">
         <v>614.4252180716981</v>
@@ -10671,10 +10671,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>92.38712204931191</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N36" t="n">
-        <v>333.2595653118431</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O36" t="n">
         <v>614.4252180716981</v>
@@ -10899,28 +10899,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K39" t="n">
-        <v>236.6660863673584</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L39" t="n">
-        <v>578.5109386733963</v>
+        <v>192.2856137303845</v>
       </c>
       <c r="M39" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N39" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O39" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P39" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q39" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R39" t="n">
         <v>71.01380490566048</v>
@@ -11373,28 +11373,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K45" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L45" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>726.4998994499999</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N45" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O45" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P45" t="n">
-        <v>122.133410929518</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q45" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R45" t="n">
         <v>71.01380490566048</v>
@@ -23261,22 +23261,22 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>259.0521728817278</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>116.5130781045884</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>226.8509454548578</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>42.96247126414337</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,7 +23309,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>127.274321941861</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>159.2039277954309</v>
@@ -23495,13 +23495,13 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>295.2524720077822</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>250.2779506112373</v>
       </c>
       <c r="E14" t="n">
-        <v>173.561633947957</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23546,13 +23546,13 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>127.274321941861</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>244.6944667292003</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23786,13 +23786,13 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>-1.350599632132798e-12</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -24026,7 +24026,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>-1.350599632132798e-12</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24443,7 +24443,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>164.4700698644085</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -24461,7 +24461,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>8.362011914352669</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24491,13 +24491,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.8571450340435</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>159.2039277954309</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24734,16 +24734,16 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>159.2039277954309</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>79.21915694839686</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>164.4700698644098</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -25628,7 +25628,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>73.09925996739636</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25643,10 +25643,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>213.4107091346484</v>
       </c>
       <c r="I41" t="n">
-        <v>24.59203395197289</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,16 +25676,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>52.48670772187302</v>
+        <v>57.41690871383409</v>
       </c>
       <c r="T41" t="n">
-        <v>108.9038846296906</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>83.99123663292573</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25883,7 +25883,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>15.04653004155311</v>
+        <v>29.52223494393396</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,19 +25913,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>54.80686577507132</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>113.8340856216516</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>145.7636914752215</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>254.9273328949085</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>773780.0399805333</v>
+        <v>772629.3579308331</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>773780.0399805333</v>
+        <v>772629.3579308331</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>742425.9556937367</v>
+        <v>742425.9556937366</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>742425.9556937369</v>
+        <v>742425.9556937367</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>785850.1773342108</v>
+        <v>785850.1773342107</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>766871.6997886021</v>
+        <v>772758.3597730037</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>766871.6997886021</v>
+        <v>772758.3597730036</v>
       </c>
     </row>
     <row r="12">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>764360.2578444683</v>
+        <v>758473.5978600668</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>764360.2578444682</v>
+        <v>758473.5978600668</v>
       </c>
     </row>
   </sheetData>
@@ -26311,34 +26311,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>540996.53428007</v>
+        <v>540996.5342800701</v>
       </c>
       <c r="C2" t="n">
-        <v>540996.53428007</v>
+        <v>540996.5342800701</v>
       </c>
       <c r="D2" t="n">
-        <v>540996.5342800701</v>
+        <v>540996.5342800703</v>
       </c>
       <c r="E2" t="n">
         <v>508428.3680497155</v>
       </c>
       <c r="F2" t="n">
-        <v>508428.3680497156</v>
+        <v>508428.3680497154</v>
       </c>
       <c r="G2" t="n">
+        <v>540996.5342800705</v>
+      </c>
+      <c r="H2" t="n">
         <v>540996.5342800703</v>
-      </c>
-      <c r="H2" t="n">
-        <v>540996.5342800705</v>
       </c>
       <c r="I2" t="n">
         <v>540996.5342800703</v>
       </c>
       <c r="J2" t="n">
-        <v>526762.6761208646</v>
+        <v>531177.6711091659</v>
       </c>
       <c r="K2" t="n">
-        <v>526762.6761208645</v>
+        <v>531177.6711091658</v>
       </c>
       <c r="L2" t="n">
         <v>540996.5342800703</v>
@@ -26350,10 +26350,10 @@
         <v>540996.5342800703</v>
       </c>
       <c r="O2" t="n">
-        <v>524879.0946627638</v>
+        <v>520464.0996744622</v>
       </c>
       <c r="P2" t="n">
-        <v>524879.0946627638</v>
+        <v>520464.0996744623</v>
       </c>
     </row>
     <row r="3">
@@ -26363,19 +26363,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>171675.8275360792</v>
+        <v>165289.681327711</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>24581.72344984813</v>
+        <v>30501.1279571646</v>
       </c>
       <c r="E3" t="n">
         <v>130452.9311377121</v>
       </c>
       <c r="F3" t="n">
-        <v>1.13686837721616e-11</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="G3" t="n">
         <v>29094.95587301435</v>
@@ -26390,19 +26390,19 @@
         <v>200837.4980720423</v>
       </c>
       <c r="K3" t="n">
-        <v>1.13686837721616e-11</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>58189.9117460287</v>
+        <v>58189.91174602867</v>
       </c>
       <c r="M3" t="n">
-        <v>46121.92123989161</v>
+        <v>46121.92123989169</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="O3" t="n">
-        <v>31699.45768316085</v>
+        <v>27755.296889592</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>228125.0593031788</v>
+        <v>232110.1824848077</v>
       </c>
       <c r="C4" t="n">
-        <v>228125.0593031788</v>
+        <v>232110.1824848077</v>
       </c>
       <c r="D4" t="n">
         <v>211575.8953047903</v>
@@ -26427,7 +26427,7 @@
         <v>161760.5563326216</v>
       </c>
       <c r="F4" t="n">
-        <v>161760.5563326216</v>
+        <v>161760.5563326217</v>
       </c>
       <c r="G4" t="n">
         <v>186364.8769761036</v>
@@ -26439,25 +26439,25 @@
         <v>186364.8769761036</v>
       </c>
       <c r="J4" t="n">
-        <v>176034.0942198338</v>
+        <v>179471.2350158116</v>
       </c>
       <c r="K4" t="n">
-        <v>176034.0942198338</v>
+        <v>179471.2350158116</v>
       </c>
       <c r="L4" t="n">
-        <v>186364.8769761036</v>
+        <v>186364.8769761035</v>
       </c>
       <c r="M4" t="n">
         <v>186364.8769761035</v>
       </c>
       <c r="N4" t="n">
-        <v>186364.8769761035</v>
+        <v>186364.8769761036</v>
       </c>
       <c r="O4" t="n">
-        <v>174187.38675119</v>
+        <v>170852.3125438945</v>
       </c>
       <c r="P4" t="n">
-        <v>174187.38675119</v>
+        <v>170852.3125438946</v>
       </c>
     </row>
     <row r="5">
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>64774.04567574775</v>
+        <v>63615.43319773584</v>
       </c>
       <c r="C5" t="n">
-        <v>64774.04567574775</v>
+        <v>63615.43319773584</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
@@ -26488,28 +26488,28 @@
         <v>58169.76931551966</v>
       </c>
       <c r="I5" t="n">
-        <v>58169.76931551967</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="J5" t="n">
-        <v>59923.70111033451</v>
+        <v>61082.31358834641</v>
       </c>
       <c r="K5" t="n">
-        <v>59923.70111033451</v>
+        <v>61082.31358834641</v>
       </c>
       <c r="L5" t="n">
-        <v>58169.76931551968</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="M5" t="n">
-        <v>58169.76931551967</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="N5" t="n">
         <v>58169.76931551966</v>
       </c>
       <c r="O5" t="n">
-        <v>56656.67380330597</v>
+        <v>56242.19673611279</v>
       </c>
       <c r="P5" t="n">
-        <v>56656.67380330597</v>
+        <v>56242.19673611279</v>
       </c>
     </row>
     <row r="6">
@@ -26519,37 +26519,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>76421.60176506422</v>
+        <v>79981.23726981561</v>
       </c>
       <c r="C6" t="n">
-        <v>248097.4293011434</v>
+        <v>245270.9185975265</v>
       </c>
       <c r="D6" t="n">
-        <v>235253.4582482585</v>
+        <v>229334.0537409423</v>
       </c>
       <c r="E6" t="n">
-        <v>161102.5910704727</v>
+        <v>160994.0305163715</v>
       </c>
       <c r="F6" t="n">
-        <v>291555.5222081849</v>
+        <v>291446.9616540835</v>
       </c>
       <c r="G6" t="n">
-        <v>267366.9321154327</v>
+        <v>267366.9321154329</v>
       </c>
       <c r="H6" t="n">
-        <v>296461.8879884472</v>
+        <v>296461.8879884471</v>
       </c>
       <c r="I6" t="n">
         <v>296461.8879884472</v>
       </c>
       <c r="J6" t="n">
-        <v>89967.38271865391</v>
+        <v>89753.89488906252</v>
       </c>
       <c r="K6" t="n">
-        <v>290804.8807906961</v>
+        <v>290591.3929611047</v>
       </c>
       <c r="L6" t="n">
-        <v>238271.9762424184</v>
+        <v>238271.9762424185</v>
       </c>
       <c r="M6" t="n">
         <v>250339.9667485555</v>
@@ -26558,10 +26558,10 @@
         <v>296461.8879884472</v>
       </c>
       <c r="O6" t="n">
-        <v>262335.576425107</v>
+        <v>265545.8520561774</v>
       </c>
       <c r="P6" t="n">
-        <v>294035.0341082678</v>
+        <v>293301.1489457695</v>
       </c>
     </row>
   </sheetData>
@@ -26692,7 +26692,7 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="F2" t="n">
         <v>93.99127447431647</v>
@@ -26707,10 +26707,10 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="K2" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L2" t="n">
         <v>130.3599693155844</v>
@@ -26722,10 +26722,10 @@
         <v>130.3599693155844</v>
       </c>
       <c r="O2" t="n">
-        <v>112.3617117864869</v>
+        <v>107.4315107945258</v>
       </c>
       <c r="P2" t="n">
-        <v>112.3617117864869</v>
+        <v>107.4315107945258</v>
       </c>
     </row>
     <row r="3">
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>512.277067035325</v>
+        <v>493.2209407522342</v>
       </c>
       <c r="C4" t="n">
-        <v>512.277067035325</v>
+        <v>493.2209407522342</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26808,19 +26808,19 @@
         <v>776.4890963014441</v>
       </c>
       <c r="I4" t="n">
-        <v>776.4890963014442</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="J4" t="n">
-        <v>855.6241555354145</v>
+        <v>874.6802818185049</v>
       </c>
       <c r="K4" t="n">
-        <v>855.6241555354145</v>
+        <v>874.6802818185049</v>
       </c>
       <c r="L4" t="n">
-        <v>776.4890963014444</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="M4" t="n">
-        <v>776.4890963014442</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="N4" t="n">
         <v>776.4890963014441</v>
@@ -26914,10 +26914,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="F2" t="n">
-        <v>1.4210854715202e-14</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="G2" t="n">
         <v>36.36869484126794</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>57.62257963304852</v>
+        <v>57.62257963304856</v>
       </c>
       <c r="K2" t="n">
-        <v>1.4210854715202e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>72.73738968253588</v>
+        <v>72.73738968253583</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>39.62432210395106</v>
+        <v>34.69412111199</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>512.277067035325</v>
+        <v>493.2209407522342</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>79.13505923397008</v>
+        <v>98.19118551706083</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>591.4121262692953</v>
+        <v>591.4121262692952</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>185.0769700321488</v>
+        <v>185.076970032149</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,10 +27151,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="K2" t="n">
-        <v>1.4210854715202e-14</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="L2" t="n">
         <v>36.36869484126794</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>57.62257963304852</v>
+        <v>57.62257963304856</v>
       </c>
       <c r="P2" t="n">
-        <v>1.4210854715202e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>512.277067035325</v>
+        <v>493.2209407522342</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>79.13505923397008</v>
+        <v>98.19118551706083</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27376,22 +27376,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>251.61967909894</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>320.8422199291742</v>
@@ -27442,10 +27442,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
-        <v>153.682653844062</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="3">
@@ -27467,16 +27467,16 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>51.94029444272337</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,16 +27503,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>48.58713607148221</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -27537,25 +27537,25 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C4" t="n">
-        <v>168.5030667546707</v>
+        <v>103.2134390284093</v>
       </c>
       <c r="D4" t="n">
         <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>30.07448747215907</v>
@@ -27585,16 +27585,16 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
-        <v>243.3738629836464</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
         <v>280.4970980481341</v>
@@ -27603,7 +27603,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y4" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,13 +27613,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
-        <v>381.5867174954989</v>
+        <v>24.34828781243442</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27628,13 +27628,13 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
         <v>221.2655964161775</v>
@@ -27676,13 +27676,13 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
-        <v>324.7072091680609</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27704,13 +27704,13 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>51.94029444272337</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>48.89338144820752</v>
@@ -27749,10 +27749,10 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>111.8523696937577</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -27774,7 +27774,7 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C7" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>154.0767819665104</v>
@@ -27786,13 +27786,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
         <v>30.07448747215907</v>
@@ -27819,16 +27819,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>149.7286674147072</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>282.5844038405181</v>
+        <v>271.2193574846817</v>
       </c>
       <c r="V7" t="n">
         <v>263.319551727384</v>
@@ -27850,19 +27850,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>31.89754410697316</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27871,7 +27871,7 @@
         <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>385.5580790162737</v>
+        <v>119.2266908236505</v>
       </c>
       <c r="Y8" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,16 +28008,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>145.9652652396042</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
         <v>155.7526754391568</v>
@@ -28032,7 +28032,7 @@
         <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>200.7879229792761</v>
@@ -28065,13 +28065,13 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
-        <v>48.00355697695608</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>231.7395189948467</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="C11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="D11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="E11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="F11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="G11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="H11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="I11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="T11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="U11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="V11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="W11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="X11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Y11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="C13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="D13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="E13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="F13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="G13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="H13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="I13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="J13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="K13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="L13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="M13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="N13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="O13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="P13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Q13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="R13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="S13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="T13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="U13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="V13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="W13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="X13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Y13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
     </row>
     <row r="14">
@@ -28746,10 +28746,10 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>5.636002634528666</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
@@ -28758,10 +28758,10 @@
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>5.636002634528481</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -28986,13 +28986,13 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>5.636002634528637</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
         <v>130.3599693155844</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>5.63600263452858</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -29217,23 +29217,23 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J25" t="n">
-        <v>35.71049010668816</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
       <c r="P25" t="n">
         <v>0</v>
       </c>
@@ -29241,7 +29241,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>122.6619794737488</v>
+        <v>128.2979821082779</v>
       </c>
       <c r="S25" t="n">
         <v>130.3599693155844</v>
@@ -29272,40 +29272,40 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="C26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="D26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="E26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="F26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="G26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="H26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="I26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="J26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="K26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="L26" t="n">
-        <v>68.98202195960062</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>50.44530812135906</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -29317,31 +29317,31 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="R26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="S26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="T26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="U26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="V26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="W26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="X26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Y26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="C28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="D28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="E28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="F28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="G28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="H28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="I28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="J28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="K28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="L28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="M28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="N28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="O28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="P28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Q28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="R28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="S28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="T28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="U28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="V28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="W28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="X28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
     </row>
     <row r="29">
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>68.98202195960062</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>93.99127447431644</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>93.99127447431644</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>50.44530812135906</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="32">
@@ -29794,7 +29794,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>37.61298457733463</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
         <v>130.3599693155844</v>
@@ -29928,7 +29928,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J34" t="n">
-        <v>35.71049010668808</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -29943,13 +29943,13 @@
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>5.636002634529376</v>
       </c>
       <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>122.6619794737488</v>
@@ -30171,25 +30171,25 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>128.2979821082778</v>
+      </c>
+      <c r="R37" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="M37" t="n">
-        <v>5.636002634529177</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>0</v>
-      </c>
-      <c r="R37" t="n">
-        <v>122.6619794737488</v>
       </c>
       <c r="S37" t="n">
         <v>130.3599693155844</v>
@@ -30405,7 +30405,7 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>5.636002634528339</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -30417,7 +30417,7 @@
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>5.636002634529035</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
         <v>130.3599693155844</v>
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>112.3617117864869</v>
+        <v>107.4315107945258</v>
       </c>
       <c r="C41" t="n">
-        <v>112.3617117864869</v>
+        <v>107.4315107945258</v>
       </c>
       <c r="D41" t="n">
-        <v>112.3617117864869</v>
+        <v>107.4315107945258</v>
       </c>
       <c r="E41" t="n">
-        <v>112.3617117864869</v>
+        <v>107.4315107945258</v>
       </c>
       <c r="F41" t="n">
-        <v>112.3617117864869</v>
+        <v>107.4315107945258</v>
       </c>
       <c r="G41" t="n">
-        <v>112.3617117864869</v>
+        <v>107.4315107945258</v>
       </c>
       <c r="H41" t="n">
-        <v>112.3617117864869</v>
+        <v>107.4315107945258</v>
       </c>
       <c r="I41" t="n">
-        <v>112.3617117864869</v>
+        <v>107.4315107945258</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S41" t="n">
-        <v>112.3617117864869</v>
+        <v>107.4315107945258</v>
       </c>
       <c r="T41" t="n">
-        <v>112.3617117864869</v>
+        <v>107.4315107945258</v>
       </c>
       <c r="U41" t="n">
-        <v>112.3617117864869</v>
+        <v>107.4315107945258</v>
       </c>
       <c r="V41" t="n">
-        <v>112.3617117864869</v>
+        <v>107.4315107945258</v>
       </c>
       <c r="W41" t="n">
-        <v>112.3617117864869</v>
+        <v>107.4315107945258</v>
       </c>
       <c r="X41" t="n">
-        <v>112.3617117864869</v>
+        <v>107.4315107945258</v>
       </c>
       <c r="Y41" t="n">
-        <v>112.3617117864869</v>
+        <v>107.4315107945258</v>
       </c>
     </row>
     <row r="42">
@@ -30615,28 +30615,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>112.3617117864869</v>
+        <v>107.4315107945258</v>
       </c>
       <c r="C43" t="n">
-        <v>112.3617117864869</v>
+        <v>107.4315107945258</v>
       </c>
       <c r="D43" t="n">
-        <v>112.3617117864869</v>
+        <v>107.4315107945258</v>
       </c>
       <c r="E43" t="n">
-        <v>112.3617117864869</v>
+        <v>107.4315107945258</v>
       </c>
       <c r="F43" t="n">
-        <v>112.3617117864869</v>
+        <v>107.4315107945258</v>
       </c>
       <c r="G43" t="n">
-        <v>112.3617117864869</v>
+        <v>107.4315107945258</v>
       </c>
       <c r="H43" t="n">
-        <v>112.3617117864869</v>
+        <v>107.4315107945258</v>
       </c>
       <c r="I43" t="n">
-        <v>112.3617117864869</v>
+        <v>107.4315107945258</v>
       </c>
       <c r="J43" t="n">
         <v>30.07448747215907</v>
@@ -30648,43 +30648,43 @@
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>84.87566734641621</v>
+        <v>72.71962420625215</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>107.4315107945258</v>
       </c>
       <c r="O43" t="n">
-        <v>112.3617117864869</v>
+        <v>107.4315107945258</v>
       </c>
       <c r="P43" t="n">
-        <v>112.3617117864869</v>
+        <v>107.4315107945258</v>
       </c>
       <c r="Q43" t="n">
-        <v>112.3617117864869</v>
+        <v>107.4315107945258</v>
       </c>
       <c r="R43" t="n">
-        <v>112.3617117864869</v>
+        <v>107.4315107945258</v>
       </c>
       <c r="S43" t="n">
-        <v>112.3617117864869</v>
+        <v>107.4315107945258</v>
       </c>
       <c r="T43" t="n">
-        <v>112.3617117864869</v>
+        <v>107.4315107945258</v>
       </c>
       <c r="U43" t="n">
-        <v>112.3617117864869</v>
+        <v>107.4315107945258</v>
       </c>
       <c r="V43" t="n">
-        <v>112.3617117864869</v>
+        <v>107.4315107945258</v>
       </c>
       <c r="W43" t="n">
-        <v>112.3617117864869</v>
+        <v>107.4315107945258</v>
       </c>
       <c r="X43" t="n">
-        <v>112.3617117864869</v>
+        <v>107.4315107945258</v>
       </c>
       <c r="Y43" t="n">
-        <v>112.3617117864869</v>
+        <v>107.4315107945258</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>112.3617117864869</v>
+        <v>107.4315107945258</v>
       </c>
       <c r="C44" t="n">
-        <v>112.3617117864869</v>
+        <v>107.4315107945258</v>
       </c>
       <c r="D44" t="n">
-        <v>112.3617117864869</v>
+        <v>107.4315107945258</v>
       </c>
       <c r="E44" t="n">
-        <v>112.3617117864869</v>
+        <v>107.4315107945258</v>
       </c>
       <c r="F44" t="n">
-        <v>112.3617117864869</v>
+        <v>107.4315107945258</v>
       </c>
       <c r="G44" t="n">
-        <v>112.3617117864869</v>
+        <v>107.4315107945258</v>
       </c>
       <c r="H44" t="n">
-        <v>112.3617117864869</v>
+        <v>107.4315107945258</v>
       </c>
       <c r="I44" t="n">
-        <v>112.3617117864869</v>
+        <v>107.4315107945258</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S44" t="n">
-        <v>112.3617117864869</v>
+        <v>107.4315107945258</v>
       </c>
       <c r="T44" t="n">
-        <v>112.3617117864869</v>
+        <v>107.4315107945258</v>
       </c>
       <c r="U44" t="n">
-        <v>112.3617117864869</v>
+        <v>107.4315107945258</v>
       </c>
       <c r="V44" t="n">
-        <v>112.3617117864869</v>
+        <v>107.4315107945258</v>
       </c>
       <c r="W44" t="n">
-        <v>112.3617117864869</v>
+        <v>107.4315107945258</v>
       </c>
       <c r="X44" t="n">
-        <v>112.3617117864869</v>
+        <v>107.4315107945258</v>
       </c>
       <c r="Y44" t="n">
-        <v>112.3617117864869</v>
+        <v>107.4315107945258</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>112.3617117864869</v>
+        <v>107.4315107945258</v>
       </c>
       <c r="C46" t="n">
-        <v>112.3617117864869</v>
+        <v>107.4315107945258</v>
       </c>
       <c r="D46" t="n">
-        <v>112.3617117864869</v>
+        <v>107.4315107945258</v>
       </c>
       <c r="E46" t="n">
-        <v>112.3617117864869</v>
+        <v>107.4315107945258</v>
       </c>
       <c r="F46" t="n">
-        <v>112.3617117864869</v>
+        <v>107.4315107945258</v>
       </c>
       <c r="G46" t="n">
-        <v>112.3617117864869</v>
+        <v>107.4315107945258</v>
       </c>
       <c r="H46" t="n">
-        <v>112.3617117864869</v>
+        <v>107.4315107945258</v>
       </c>
       <c r="I46" t="n">
-        <v>112.3617117864869</v>
+        <v>107.4315107945258</v>
       </c>
       <c r="J46" t="n">
-        <v>30.07448747215907</v>
+        <v>107.4315107945258</v>
       </c>
       <c r="K46" t="n">
-        <v>84.87566734641635</v>
+        <v>107.4315107945258</v>
       </c>
       <c r="L46" t="n">
-        <v>112.3617117864869</v>
+        <v>107.4315107945258</v>
       </c>
       <c r="M46" t="n">
-        <v>112.3617117864869</v>
+        <v>107.4315107945258</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>102.7941116784115</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>112.3617117864869</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>112.3617117864869</v>
+        <v>107.4315107945258</v>
       </c>
       <c r="S46" t="n">
-        <v>112.3617117864869</v>
+        <v>107.4315107945258</v>
       </c>
       <c r="T46" t="n">
-        <v>112.3617117864869</v>
+        <v>107.4315107945258</v>
       </c>
       <c r="U46" t="n">
-        <v>112.3617117864869</v>
+        <v>107.4315107945258</v>
       </c>
       <c r="V46" t="n">
-        <v>112.3617117864869</v>
+        <v>107.4315107945258</v>
       </c>
       <c r="W46" t="n">
-        <v>112.3617117864869</v>
+        <v>107.4315107945258</v>
       </c>
       <c r="X46" t="n">
-        <v>112.3617117864869</v>
+        <v>107.4315107945258</v>
       </c>
       <c r="Y46" t="n">
-        <v>112.3617117864869</v>
+        <v>107.4315107945258</v>
       </c>
     </row>
   </sheetData>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>362.6084404317796</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>498.303324968211</v>
+        <v>493.2209407522342</v>
       </c>
       <c r="M2" t="n">
-        <v>512.277067035325</v>
+        <v>493.2209407522342</v>
       </c>
       <c r="N2" t="n">
-        <v>64.62604531955049</v>
+        <v>335.316630329351</v>
       </c>
       <c r="O2" t="n">
         <v>444.4844453457863</v>
@@ -34717,7 +34717,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>488.450591816478</v>
+        <v>63.57426767497473</v>
       </c>
       <c r="M3" t="n">
-        <v>353.7237380589339</v>
+        <v>493.2209407522342</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>493.2209407522342</v>
       </c>
       <c r="O3" t="n">
-        <v>512.277067035325</v>
+        <v>493.2209407522342</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q3" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L5" t="n">
-        <v>498.303324968211</v>
+        <v>493.2209407522342</v>
       </c>
       <c r="M5" t="n">
-        <v>512.277067035325</v>
+        <v>493.2209407522342</v>
       </c>
       <c r="N5" t="n">
-        <v>512.277067035325</v>
+        <v>271.0817535172689</v>
       </c>
       <c r="O5" t="n">
-        <v>153.8482082812926</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>322.9688344062893</v>
@@ -35021,19 +35021,19 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>493.2209407522342</v>
       </c>
       <c r="N6" t="n">
-        <v>432.4557756164246</v>
+        <v>233.8263740209196</v>
       </c>
       <c r="O6" t="n">
-        <v>512.277067035325</v>
+        <v>493.2209407522342</v>
       </c>
       <c r="P6" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q6" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,25 +35170,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K8" t="n">
-        <v>362.6084404317796</v>
+        <v>314.7944296574907</v>
       </c>
       <c r="L8" t="n">
-        <v>498.303324968211</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>551.5160606510915</v>
       </c>
       <c r="N8" t="n">
-        <v>484.8407942350878</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O8" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35249,16 +35249,16 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L9" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
-        <v>93.70171839237568</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>591.4121262692951</v>
@@ -35267,7 +35267,7 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P9" t="n">
-        <v>409.7185542589873</v>
+        <v>66.19388044736931</v>
       </c>
       <c r="Q9" t="n">
         <v>236.7324157120106</v>
@@ -35413,7 +35413,7 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L11" t="n">
-        <v>498.3033249682109</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M11" t="n">
         <v>551.5160606510915</v>
@@ -35489,13 +35489,13 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>259.444269251904</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N12" t="n">
         <v>662.4019911217769</v>
@@ -35504,7 +35504,7 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P12" t="n">
-        <v>409.7185542589873</v>
+        <v>35.05004611020335</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35565,19 +35565,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>63.91678700215738</v>
+        <v>63.91678700215737</v>
       </c>
       <c r="K13" t="n">
         <v>176.6529321611264</v>
       </c>
       <c r="L13" t="n">
-        <v>259.7767692963365</v>
+        <v>259.7767692963364</v>
       </c>
       <c r="M13" t="n">
         <v>282.1645859271084</v>
       </c>
       <c r="N13" t="n">
-        <v>279.0313088492753</v>
+        <v>279.0313088492752</v>
       </c>
       <c r="O13" t="n">
         <v>258.3395240113953</v>
@@ -35586,7 +35586,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q13" t="n">
-        <v>97.44803848446894</v>
+        <v>97.44803848446892</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35656,7 +35656,7 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N14" t="n">
-        <v>533.1427107449113</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O14" t="n">
         <v>444.4844453457863</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K15" t="n">
         <v>322.9688344062893</v>
@@ -35732,19 +35732,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N15" t="n">
-        <v>598.8774259673916</v>
+        <v>23.49322931597588</v>
       </c>
       <c r="O15" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P15" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K18" t="n">
         <v>322.9688344062893</v>
@@ -35972,7 +35972,7 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>362.1450102553808</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O18" t="n">
         <v>521.7376591828091</v>
@@ -36042,10 +36042,10 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>82.66165768680997</v>
+        <v>213.0216270023944</v>
       </c>
       <c r="L19" t="n">
-        <v>165.78549482202</v>
+        <v>171.4214974565487</v>
       </c>
       <c r="M19" t="n">
         <v>188.1733114527919</v>
@@ -36054,10 +36054,10 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O19" t="n">
-        <v>294.7082188526633</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P19" t="n">
-        <v>126.7230387724866</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q19" t="n">
         <v>3.456764010152483</v>
@@ -36203,19 +36203,19 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L21" t="n">
-        <v>483.6546074113651</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N21" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q21" t="n">
         <v>236.7324157120106</v>
@@ -36282,13 +36282,13 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L22" t="n">
-        <v>171.4214974565486</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M22" t="n">
         <v>318.5332807683764</v>
       </c>
       <c r="N22" t="n">
-        <v>185.0400343749588</v>
+        <v>190.6760370094874</v>
       </c>
       <c r="O22" t="n">
         <v>164.3482495370789</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>322.9688344062893</v>
+        <v>35.0500461102036</v>
       </c>
       <c r="L24" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N24" t="n">
-        <v>247.8874524576764</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O24" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P24" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>5.636002634529087</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>213.0216270023944</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L25" t="n">
         <v>165.78549482202</v>
@@ -36528,7 +36528,7 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O25" t="n">
-        <v>164.3482495370789</v>
+        <v>294.7082188526632</v>
       </c>
       <c r="P25" t="n">
         <v>121.0870361379582</v>
@@ -36537,7 +36537,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>5.636002634529095</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36592,16 +36592,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>240.1021562004054</v>
+        <v>240.1021562004055</v>
       </c>
       <c r="K26" t="n">
         <v>456.5997149060961</v>
       </c>
       <c r="L26" t="n">
-        <v>567.2853469278116</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M26" t="n">
-        <v>551.5160606510915</v>
+        <v>601.9613687724506</v>
       </c>
       <c r="N26" t="n">
         <v>533.1427107449111</v>
@@ -36613,10 +36613,10 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q26" t="n">
-        <v>186.7126870110591</v>
+        <v>280.7039614853756</v>
       </c>
       <c r="R26" t="n">
-        <v>56.37828989698316</v>
+        <v>56.3782898969832</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36680,10 +36680,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N27" t="n">
-        <v>247.8874524576764</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>521.7376591828091</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>63.91678700215737</v>
+        <v>63.91678700215741</v>
       </c>
       <c r="K28" t="n">
         <v>176.6529321611264</v>
       </c>
       <c r="L28" t="n">
-        <v>259.7767692963364</v>
+        <v>259.7767692963365</v>
       </c>
       <c r="M28" t="n">
         <v>282.1645859271084</v>
       </c>
       <c r="N28" t="n">
-        <v>279.0313088492752</v>
+        <v>279.0313088492753</v>
       </c>
       <c r="O28" t="n">
         <v>258.3395240113953</v>
       </c>
       <c r="P28" t="n">
-        <v>215.0783106122746</v>
+        <v>215.0783106122747</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.44803848446892</v>
+        <v>97.44803848446897</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,28 +36832,28 @@
         <v>146.110881726089</v>
       </c>
       <c r="K29" t="n">
-        <v>431.5904623913802</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L29" t="n">
-        <v>592.2945994425274</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M29" t="n">
-        <v>645.507335125408</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N29" t="n">
-        <v>533.1427107449111</v>
+        <v>583.5880188662702</v>
       </c>
       <c r="O29" t="n">
-        <v>444.4844453457863</v>
+        <v>538.4757198201028</v>
       </c>
       <c r="P29" t="n">
-        <v>351.7045375065877</v>
+        <v>445.6958119809042</v>
       </c>
       <c r="Q29" t="n">
-        <v>186.7126870110591</v>
+        <v>280.7039614853756</v>
       </c>
       <c r="R29" t="n">
-        <v>56.37828989698316</v>
+        <v>56.37828989698318</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36914,13 +36914,13 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L30" t="n">
-        <v>488.450591816478</v>
+        <v>102.2252668734663</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N30" t="n">
-        <v>247.8874524576764</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>521.7376591828091</v>
@@ -36987,19 +36987,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>63.91678700215737</v>
+        <v>63.91678700215738</v>
       </c>
       <c r="K31" t="n">
         <v>176.6529321611264</v>
       </c>
       <c r="L31" t="n">
-        <v>259.7767692963364</v>
+        <v>259.7767692963365</v>
       </c>
       <c r="M31" t="n">
         <v>282.1645859271084</v>
       </c>
       <c r="N31" t="n">
-        <v>279.0313088492752</v>
+        <v>279.0313088492753</v>
       </c>
       <c r="O31" t="n">
         <v>258.3395240113953</v>
@@ -37008,7 +37008,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q31" t="n">
-        <v>97.44803848446892</v>
+        <v>97.44803848446894</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>5.636002634529008</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>82.66165768680997</v>
@@ -37239,13 +37239,13 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O34" t="n">
-        <v>164.3482495370789</v>
+        <v>169.9842521716082</v>
       </c>
       <c r="P34" t="n">
-        <v>251.4470054535425</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q34" t="n">
-        <v>3.456764010152483</v>
+        <v>133.8167333257368</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37391,10 +37391,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N36" t="n">
-        <v>247.8874524576764</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>521.7376591828091</v>
@@ -37467,10 +37467,10 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L37" t="n">
-        <v>296.1454641376043</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M37" t="n">
-        <v>193.8093140873211</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N37" t="n">
         <v>185.0400343749588</v>
@@ -37482,10 +37482,10 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q37" t="n">
-        <v>3.456764010152483</v>
+        <v>131.7547461184303</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>7.697989841835579</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K39" t="n">
-        <v>147.0691510340251</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L39" t="n">
-        <v>488.450591816478</v>
+        <v>102.2252668734663</v>
       </c>
       <c r="M39" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N39" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P39" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37701,7 +37701,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>82.66165768680997</v>
+        <v>88.29766032133831</v>
       </c>
       <c r="L40" t="n">
         <v>165.78549482202</v>
@@ -37713,10 +37713,10 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O40" t="n">
-        <v>169.9842521716079</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P40" t="n">
-        <v>251.4470054535425</v>
+        <v>251.4470054535426</v>
       </c>
       <c r="Q40" t="n">
         <v>3.456764010152483</v>
@@ -37783,7 +37783,7 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L41" t="n">
-        <v>498.303324968211</v>
+        <v>498.3033249682109</v>
       </c>
       <c r="M41" t="n">
         <v>551.5160606510915</v>
@@ -37944,19 +37944,19 @@
         <v>165.78549482202</v>
       </c>
       <c r="M43" t="n">
-        <v>273.0489787992082</v>
+        <v>260.8929356590441</v>
       </c>
       <c r="N43" t="n">
-        <v>185.0400343749588</v>
+        <v>292.4715451694847</v>
       </c>
       <c r="O43" t="n">
-        <v>276.7099613235658</v>
+        <v>271.7797603316047</v>
       </c>
       <c r="P43" t="n">
-        <v>233.4487479244451</v>
+        <v>228.518546932484</v>
       </c>
       <c r="Q43" t="n">
-        <v>115.8184757966394</v>
+        <v>110.8882748046783</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L45" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M45" t="n">
-        <v>634.1127774006881</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N45" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P45" t="n">
-        <v>35.05004611020335</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,25 +38172,25 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>77.35702332236679</v>
       </c>
       <c r="K46" t="n">
-        <v>167.5373250332263</v>
+        <v>190.0931684813358</v>
       </c>
       <c r="L46" t="n">
-        <v>278.1472066085069</v>
+        <v>273.2170056165459</v>
       </c>
       <c r="M46" t="n">
-        <v>300.5350232392789</v>
+        <v>295.6048222473178</v>
       </c>
       <c r="N46" t="n">
-        <v>185.0400343749588</v>
+        <v>287.8341460533703</v>
       </c>
       <c r="O46" t="n">
         <v>164.3482495370789</v>
       </c>
       <c r="P46" t="n">
-        <v>233.4487479244451</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q46" t="n">
         <v>3.456764010152483</v>
